--- a/Style/style.xlsx
+++ b/Style/style.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="892" uniqueCount="832">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="835">
   <si>
     <t>exaggerate</t>
   </si>
@@ -2551,6 +2551,15 @@
   </si>
   <si>
     <t>modern ______ of today</t>
+  </si>
+  <si>
+    <t>it is also important to note that</t>
+  </si>
+  <si>
+    <t>it is important to note that</t>
+  </si>
+  <si>
+    <t>notably</t>
   </si>
 </sst>
 </file>
@@ -3017,7 +3026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A427" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D439"/>
+      <selection pane="bottomLeft" activeCell="B442" sqref="B442"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3050,11 +3059,11 @@
         <v>161</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A2,", ",B2,", All")</f>
+        <f t="shared" ref="C2:C65" si="0">CONCATENATE("stringReplace, contents, contents, ",A2,", ",B2,", All")</f>
         <v>stringReplace, contents, contents, a.m. in the morning, a.m., All</v>
       </c>
       <c r="D2" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A2,1))&amp;RIGHT(A2,LEN(A2)-1),", ",UPPER(LEFT(B2,1))&amp;RIGHT(B2,LEN(B2)-1),", All")</f>
+        <f t="shared" ref="D2:D65" si="1">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A2,1))&amp;RIGHT(A2,LEN(A2)-1),", ",UPPER(LEFT(B2,1))&amp;RIGHT(B2,LEN(B2)-1),", All")</f>
         <v>stringReplace, contents, contents, A.m. in the morning, A.m., All</v>
       </c>
     </row>
@@ -3066,11 +3075,11 @@
         <v>227</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A3,", ",B3,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, aid and abet, abet, All</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A3,1))&amp;RIGHT(A3,LEN(A3)-1),", ",UPPER(LEFT(B3,1))&amp;RIGHT(B3,LEN(B3)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Aid and abet, Abet, All</v>
       </c>
     </row>
@@ -3082,11 +3091,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A4,", ",B4,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, old adage, adage, All</v>
       </c>
       <c r="D4" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A4,1))&amp;RIGHT(A4,LEN(A4)-1),", ",UPPER(LEFT(B4,1))&amp;RIGHT(B4,LEN(B4)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Old adage, Adage, All</v>
       </c>
     </row>
@@ -3098,11 +3107,11 @@
         <v>222</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A5,", ",B5,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, add an additional, add, All</v>
       </c>
       <c r="D5" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A5,1))&amp;RIGHT(A5,LEN(A5)-1),", ",UPPER(LEFT(B5,1))&amp;RIGHT(B5,LEN(B5)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Add an additional, Add, All</v>
       </c>
     </row>
@@ -3114,11 +3123,11 @@
         <v>222</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A6,", ",B6,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, add up, add, All</v>
       </c>
       <c r="D6" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A6,1))&amp;RIGHT(A6,LEN(A6)-1),", ",UPPER(LEFT(B6,1))&amp;RIGHT(B6,LEN(B6)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Add up, Add, All</v>
       </c>
     </row>
@@ -3130,11 +3139,11 @@
         <v>74</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A7,", ",B7,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, add an additional, add a, All</v>
       </c>
       <c r="D7" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A7,1))&amp;RIGHT(A7,LEN(A7)-1),", ",UPPER(LEFT(B7,1))&amp;RIGHT(B7,LEN(B7)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Add an additional, Add a, All</v>
       </c>
     </row>
@@ -3146,11 +3155,11 @@
         <v>215</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A8,", ",B8,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, advance forward, advance, All</v>
       </c>
       <c r="D8" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A8,1))&amp;RIGHT(A8,LEN(A8)-1),", ",UPPER(LEFT(B8,1))&amp;RIGHT(B8,LEN(B8)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Advance forward, Advance, All</v>
       </c>
     </row>
@@ -3162,11 +3171,11 @@
         <v>230</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A9,", ",B9,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, alternative choice, alternative, All</v>
       </c>
       <c r="D9" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A9,1))&amp;RIGHT(A9,LEN(A9)-1),", ",UPPER(LEFT(B9,1))&amp;RIGHT(B9,LEN(B9)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Alternative choice, Alternative, All</v>
       </c>
     </row>
@@ -3178,11 +3187,11 @@
         <v>756</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A10,", ",B10,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, veiled ambush, ambush, All</v>
       </c>
       <c r="D10" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A10,1))&amp;RIGHT(A10,LEN(A10)-1),", ",UPPER(LEFT(B10,1))&amp;RIGHT(B10,LEN(B10)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Veiled ambush, Ambush, All</v>
       </c>
     </row>
@@ -3194,11 +3203,11 @@
         <v>306</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A11,", ",B11,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, completely annihilate, annihilate, All</v>
       </c>
       <c r="D11" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A11,1))&amp;RIGHT(A11,LEN(A11)-1),", ",UPPER(LEFT(B11,1))&amp;RIGHT(B11,LEN(B11)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Completely annihilate, Annihilate, All</v>
       </c>
     </row>
@@ -3210,11 +3219,11 @@
         <v>236</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A12,", ",B12,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, annual anniversary, anniversary, All</v>
       </c>
       <c r="D12" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A12,1))&amp;RIGHT(A12,LEN(A12)-1),", ",UPPER(LEFT(B12,1))&amp;RIGHT(B12,LEN(B12)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Annual anniversary, Anniversary, All</v>
       </c>
     </row>
@@ -3226,11 +3235,11 @@
         <v>236</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A13,", ",B13,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, yearly anniversary, anniversary, All</v>
       </c>
       <c r="D13" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A13,1))&amp;RIGHT(A13,LEN(A13)-1),", ",UPPER(LEFT(B13,1))&amp;RIGHT(B13,LEN(B13)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Yearly anniversary, Anniversary, All</v>
       </c>
     </row>
@@ -3242,11 +3251,11 @@
         <v>750</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A14,", ",B14,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, unnamed anonymous, anonymous, All</v>
       </c>
       <c r="D14" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A14,1))&amp;RIGHT(A14,LEN(A14)-1),", ",UPPER(LEFT(B14,1))&amp;RIGHT(B14,LEN(B14)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Unnamed anonymous, Anonymous, All</v>
       </c>
     </row>
@@ -3258,11 +3267,11 @@
         <v>393</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A15,", ",B15,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, favorable approval, approval, All</v>
       </c>
       <c r="D15" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A15,1))&amp;RIGHT(A15,LEN(A15)-1),", ",UPPER(LEFT(B15,1))&amp;RIGHT(B15,LEN(B15)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Favorable approval, Approval, All</v>
       </c>
     </row>
@@ -3274,11 +3283,11 @@
         <v>789</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A16,", ",B16,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, aquamarine in color, aquamarine, All</v>
       </c>
       <c r="D16" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A16,1))&amp;RIGHT(A16,LEN(A16)-1),", ",UPPER(LEFT(B16,1))&amp;RIGHT(B16,LEN(B16)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Aquamarine in color, Aquamarine, All</v>
       </c>
     </row>
@@ -3290,11 +3299,11 @@
         <v>47</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A17,", ",B17,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, as per usual, as usual, All</v>
       </c>
       <c r="D17" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A17,1))&amp;RIGHT(A17,LEN(A17)-1),", ",UPPER(LEFT(B17,1))&amp;RIGHT(B17,LEN(B17)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, As per usual, As usual, All</v>
       </c>
     </row>
@@ -3306,11 +3315,11 @@
         <v>242</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A18,", ",B18,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, ascend up, ascend, All</v>
       </c>
       <c r="D18" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A18,1))&amp;RIGHT(A18,LEN(A18)-1),", ",UPPER(LEFT(B18,1))&amp;RIGHT(B18,LEN(B18)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Ascend up, Ascend, All</v>
       </c>
     </row>
@@ -3322,11 +3331,11 @@
         <v>82</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A19,", ",B19,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, ask a question, ask, All</v>
       </c>
       <c r="D19" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A19,1))&amp;RIGHT(A19,LEN(A19)-1),", ",UPPER(LEFT(B19,1))&amp;RIGHT(B19,LEN(B19)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Ask a question, Ask, All</v>
       </c>
     </row>
@@ -3338,11 +3347,11 @@
         <v>82</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A20,", ",B20,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, ask the question, ask, All</v>
       </c>
       <c r="D20" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A20,1))&amp;RIGHT(A20,LEN(A20)-1),", ",UPPER(LEFT(B20,1))&amp;RIGHT(B20,LEN(B20)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Ask the question, Ask, All</v>
       </c>
     </row>
@@ -3354,11 +3363,11 @@
         <v>244</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A21,", ",B21,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, assemble together, assemble, All</v>
       </c>
       <c r="D21" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A21,1))&amp;RIGHT(A21,LEN(A21)-1),", ",UPPER(LEFT(B21,1))&amp;RIGHT(B21,LEN(B21)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Assemble together, Assemble, All</v>
       </c>
     </row>
@@ -3370,11 +3379,11 @@
         <v>85</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A22,", ",B22,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, at the present time, at present, All</v>
       </c>
       <c r="D22" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A22,1))&amp;RIGHT(A22,LEN(A22)-1),", ",UPPER(LEFT(B22,1))&amp;RIGHT(B22,LEN(B22)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, At the present time, At present, All</v>
       </c>
     </row>
@@ -3386,11 +3395,11 @@
         <v>248</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A23,", ",B23,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, ATM machine, ATM, All</v>
       </c>
       <c r="D23" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A23,1))&amp;RIGHT(A23,LEN(A23)-1),", ",UPPER(LEFT(B23,1))&amp;RIGHT(B23,LEN(B23)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, ATM machine, ATM, All</v>
       </c>
     </row>
@@ -3402,11 +3411,11 @@
         <v>246</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A24,", ",B24,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, attach together, attach, All</v>
       </c>
       <c r="D24" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A24,1))&amp;RIGHT(A24,LEN(A24)-1),", ",UPPER(LEFT(B24,1))&amp;RIGHT(B24,LEN(B24)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Attach together, Attach, All</v>
       </c>
     </row>
@@ -3418,11 +3427,11 @@
         <v>250</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A25,", ",B25,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, autobiography of his life, autobiography, All</v>
       </c>
       <c r="D25" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A25,1))&amp;RIGHT(A25,LEN(A25)-1),", ",UPPER(LEFT(B25,1))&amp;RIGHT(B25,LEN(B25)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Autobiography of his life, Autobiography, All</v>
       </c>
     </row>
@@ -3434,11 +3443,11 @@
         <v>250</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A26,", ",B26,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, autobiography of her own life, autobiography, All</v>
       </c>
       <c r="D26" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A26,1))&amp;RIGHT(A26,LEN(A26)-1),", ",UPPER(LEFT(B26,1))&amp;RIGHT(B26,LEN(B26)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Autobiography of her own life, Autobiography, All</v>
       </c>
     </row>
@@ -3450,11 +3459,11 @@
         <v>250</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A27,", ",B27,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, autobiography of his own life, autobiography, All</v>
       </c>
       <c r="D27" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A27,1))&amp;RIGHT(A27,LEN(A27)-1),", ",UPPER(LEFT(B27,1))&amp;RIGHT(B27,LEN(B27)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Autobiography of his own life, Autobiography, All</v>
       </c>
     </row>
@@ -3466,11 +3475,11 @@
         <v>250</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A28,", ",B28,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, autobiography of her life, autobiography, All</v>
       </c>
       <c r="D28" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A28,1))&amp;RIGHT(A28,LEN(A28)-1),", ",UPPER(LEFT(B28,1))&amp;RIGHT(B28,LEN(B28)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Autobiography of her life, Autobiography, All</v>
       </c>
     </row>
@@ -3482,11 +3491,11 @@
         <v>493</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A29,", ",B29,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, little baby, baby, All</v>
       </c>
       <c r="D29" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A29,1))&amp;RIGHT(A29,LEN(A29)-1),", ",UPPER(LEFT(B29,1))&amp;RIGHT(B29,LEN(B29)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Little baby, Baby, All</v>
       </c>
     </row>
@@ -3498,11 +3507,11 @@
         <v>254</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A30,", ",B30,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, bald-headed, bald, All</v>
       </c>
       <c r="D30" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A30,1))&amp;RIGHT(A30,LEN(A30)-1),", ",UPPER(LEFT(B30,1))&amp;RIGHT(B30,LEN(B30)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Bald-headed, Bald, All</v>
       </c>
     </row>
@@ -3514,11 +3523,11 @@
         <v>256</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A31,", ",B31,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, balsa wood, balsa, All</v>
       </c>
       <c r="D31" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A31,1))&amp;RIGHT(A31,LEN(A31)-1),", ",UPPER(LEFT(B31,1))&amp;RIGHT(B31,LEN(B31)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Balsa wood, Balsa, All</v>
       </c>
     </row>
@@ -3530,11 +3539,11 @@
         <v>135</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A32,", ",B32,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, first began, began, All</v>
       </c>
       <c r="D32" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A32,1))&amp;RIGHT(A32,LEN(A32)-1),", ",UPPER(LEFT(B32,1))&amp;RIGHT(B32,LEN(B32)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, First began, Began, All</v>
       </c>
     </row>
@@ -3546,11 +3555,11 @@
         <v>543</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A33,", ",B33,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, new beginning, beginning, All</v>
       </c>
       <c r="D33" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A33,1))&amp;RIGHT(A33,LEN(A33)-1),", ",UPPER(LEFT(B33,1))&amp;RIGHT(B33,LEN(B33)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, New beginning, Beginning, All</v>
       </c>
     </row>
@@ -3562,11 +3571,11 @@
         <v>137</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A34,", ",B34,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, first beginnings, beginnings, All</v>
       </c>
       <c r="D34" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A34,1))&amp;RIGHT(A34,LEN(A34)-1),", ",UPPER(LEFT(B34,1))&amp;RIGHT(B34,LEN(B34)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, First beginnings, Beginnings, All</v>
       </c>
     </row>
@@ -3578,11 +3587,11 @@
         <v>137</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A35,", ",B35,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, new beginnings, beginnings, All</v>
       </c>
       <c r="D35" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A35,1))&amp;RIGHT(A35,LEN(A35)-1),", ",UPPER(LEFT(B35,1))&amp;RIGHT(B35,LEN(B35)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, New beginnings, Beginnings, All</v>
       </c>
     </row>
@@ -3594,11 +3603,11 @@
         <v>139</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A36,", ",B36,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, first begins, begins, All</v>
       </c>
       <c r="D36" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A36,1))&amp;RIGHT(A36,LEN(A36)-1),", ",UPPER(LEFT(B36,1))&amp;RIGHT(B36,LEN(B36)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, First begins, Begins, All</v>
       </c>
     </row>
@@ -3610,11 +3619,11 @@
         <v>348</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A37,", ",B37,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, desirable benefit, benefit, All</v>
       </c>
       <c r="D37" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A37,1))&amp;RIGHT(A37,LEN(A37)-1),", ",UPPER(LEFT(B37,1))&amp;RIGHT(B37,LEN(B37)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Desirable benefit, Benefit, All</v>
       </c>
     </row>
@@ -3626,11 +3635,11 @@
         <v>261</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A38,", ",B38,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, best ever, best, All</v>
       </c>
       <c r="D38" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A38,1))&amp;RIGHT(A38,LEN(A38)-1),", ",UPPER(LEFT(B38,1))&amp;RIGHT(B38,LEN(B38)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Best ever, Best, All</v>
       </c>
     </row>
@@ -3642,11 +3651,11 @@
         <v>263</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A39,", ",B39,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, biography of her life, biography, All</v>
       </c>
       <c r="D39" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A39,1))&amp;RIGHT(A39,LEN(A39)-1),", ",UPPER(LEFT(B39,1))&amp;RIGHT(B39,LEN(B39)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Biography of her life, Biography, All</v>
       </c>
     </row>
@@ -3658,11 +3667,11 @@
         <v>263</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A40,", ",B40,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, biography of his life, biography, All</v>
       </c>
       <c r="D40" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A40,1))&amp;RIGHT(A40,LEN(A40)-1),", ",UPPER(LEFT(B40,1))&amp;RIGHT(B40,LEN(B40)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Biography of his life, Biography, All</v>
       </c>
     </row>
@@ -3674,11 +3683,11 @@
         <v>725</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A41,", ",B41,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, tiny bit, bit, All</v>
       </c>
       <c r="D41" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A41,1))&amp;RIGHT(A41,LEN(A41)-1),", ",UPPER(LEFT(B41,1))&amp;RIGHT(B41,LEN(B41)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Tiny bit, Bit, All</v>
       </c>
     </row>
@@ -3690,11 +3699,11 @@
         <v>787</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A42,", ",B42,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, black in color, black, All</v>
       </c>
       <c r="D42" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A42,1))&amp;RIGHT(A42,LEN(A42)-1),", ",UPPER(LEFT(B42,1))&amp;RIGHT(B42,LEN(B42)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Black in color, Black, All</v>
       </c>
     </row>
@@ -3706,11 +3715,11 @@
         <v>265</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A43,", ",B43,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, blend together, blend, All</v>
       </c>
       <c r="D43" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A43,1))&amp;RIGHT(A43,LEN(A43)-1),", ",UPPER(LEFT(B43,1))&amp;RIGHT(B43,LEN(B43)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Blend together, Blend, All</v>
       </c>
     </row>
@@ -3722,11 +3731,11 @@
         <v>779</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A44,", ",B44,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, blue in color, blue, All</v>
       </c>
       <c r="D44" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A44,1))&amp;RIGHT(A44,LEN(A44)-1),", ",UPPER(LEFT(B44,1))&amp;RIGHT(B44,LEN(B44)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Blue in color, Blue, All</v>
       </c>
     </row>
@@ -3738,11 +3747,11 @@
         <v>617</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A45,", ",B45,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, preboard as an airplane, board , All</v>
       </c>
       <c r="D45" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A45,1))&amp;RIGHT(A45,LEN(A45)-1),", ",UPPER(LEFT(B45,1))&amp;RIGHT(B45,LEN(B45)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Preboard as an airplane, Board , All</v>
       </c>
     </row>
@@ -3754,11 +3763,11 @@
         <v>6</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A46,", ",B46,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, added bonus, bonus, All</v>
       </c>
       <c r="D46" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A46,1))&amp;RIGHT(A46,LEN(A46)-1),", ",UPPER(LEFT(B46,1))&amp;RIGHT(B46,LEN(B46)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Added bonus, Bonus, All</v>
       </c>
     </row>
@@ -3770,11 +3779,11 @@
         <v>269</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A47,", ",B47,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, bouquet of flowers, bouquet, All</v>
       </c>
       <c r="D47" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A47,1))&amp;RIGHT(A47,LEN(A47)-1),", ",UPPER(LEFT(B47,1))&amp;RIGHT(B47,LEN(B47)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Bouquet of flowers, Bouquet, All</v>
       </c>
     </row>
@@ -3786,11 +3795,11 @@
         <v>791</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A48,", ",B48,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, brass in color, brass, All</v>
       </c>
       <c r="D48" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A48,1))&amp;RIGHT(A48,LEN(A48)-1),", ",UPPER(LEFT(B48,1))&amp;RIGHT(B48,LEN(B48)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Brass in color, Brass, All</v>
       </c>
     </row>
@@ -3802,11 +3811,11 @@
         <v>507</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A49,", ",B49,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, major breakthrough, breakthrough, All</v>
       </c>
       <c r="D49" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A49,1))&amp;RIGHT(A49,LEN(A49)-1),", ",UPPER(LEFT(B49,1))&amp;RIGHT(B49,LEN(B49)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Major breakthrough, Breakthrough, All</v>
       </c>
     </row>
@@ -3818,11 +3827,11 @@
         <v>271</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A50,", ",B50,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, brief in duration, brief, All</v>
       </c>
       <c r="D50" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A50,1))&amp;RIGHT(A50,LEN(A50)-1),", ",UPPER(LEFT(B50,1))&amp;RIGHT(B50,LEN(B50)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Brief in duration, Brief, All</v>
       </c>
     </row>
@@ -3834,11 +3843,11 @@
         <v>821</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A51,", ",B51,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, brown in color, brown, All</v>
       </c>
       <c r="D51" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A51,1))&amp;RIGHT(A51,LEN(A51)-1),", ",UPPER(LEFT(B51,1))&amp;RIGHT(B51,LEN(B51)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Brown in color, Brown, All</v>
       </c>
     </row>
@@ -3850,11 +3859,11 @@
         <v>281</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A52,", ",B52,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, cacophony of sound, cacophony, All</v>
       </c>
       <c r="D52" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A52,1))&amp;RIGHT(A52,LEN(A52)-1),", ",UPPER(LEFT(B52,1))&amp;RIGHT(B52,LEN(B52)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Cacophony of sound, Cacophony, All</v>
       </c>
     </row>
@@ -3866,11 +3875,11 @@
         <v>89</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A53,", ",B53,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, came at a time when, came when, All</v>
       </c>
       <c r="D53" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A53,1))&amp;RIGHT(A53,LEN(A53)-1),", ",UPPER(LEFT(B53,1))&amp;RIGHT(B53,LEN(B53)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Came at a time when, Came when, All</v>
       </c>
     </row>
@@ -3882,11 +3891,11 @@
         <v>283</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A54,", ",B54,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, cameo appearance, cameo, All</v>
       </c>
       <c r="D54" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A54,1))&amp;RIGHT(A54,LEN(A54)-1),", ",UPPER(LEFT(B54,1))&amp;RIGHT(B54,LEN(B54)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Cameo appearance, Cameo, All</v>
       </c>
     </row>
@@ -3898,11 +3907,11 @@
         <v>285</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A55,", ",B55,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, cancel out, cancel, All</v>
       </c>
       <c r="D55" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A55,1))&amp;RIGHT(A55,LEN(A55)-1),", ",UPPER(LEFT(B55,1))&amp;RIGHT(B55,LEN(B55)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Cancel out, Cancel, All</v>
       </c>
     </row>
@@ -3914,11 +3923,11 @@
         <v>288</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A56,", ",B56,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, cash money, cash, All</v>
       </c>
       <c r="D56" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A56,1))&amp;RIGHT(A56,LEN(A56)-1),", ",UPPER(LEFT(B56,1))&amp;RIGHT(B56,LEN(B56)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Cash money, Cash, All</v>
       </c>
     </row>
@@ -3930,11 +3939,11 @@
         <v>290</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A57,", ",B57,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, cease and desist, cease, All</v>
       </c>
       <c r="D57" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A57,1))&amp;RIGHT(A57,LEN(A57)-1),", ",UPPER(LEFT(B57,1))&amp;RIGHT(B57,LEN(B57)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Cease and desist, Cease, All</v>
       </c>
     </row>
@@ -3946,11 +3955,11 @@
         <v>65</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A58,", ",B58,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, absolutely certain, certain, All</v>
       </c>
       <c r="D58" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A58,1))&amp;RIGHT(A58,LEN(A58)-1),", ",UPPER(LEFT(B58,1))&amp;RIGHT(B58,LEN(B58)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Absolutely certain, Certain, All</v>
       </c>
     </row>
@@ -3962,11 +3971,11 @@
         <v>292</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A59,", ",B59,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, circle around, circle, All</v>
       </c>
       <c r="D59" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A59,1))&amp;RIGHT(A59,LEN(A59)-1),", ",UPPER(LEFT(B59,1))&amp;RIGHT(B59,LEN(B59)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Circle around, Circle, All</v>
       </c>
     </row>
@@ -3978,11 +3987,11 @@
         <v>294</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A60,", ",B60,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, circulate around, circulate, All</v>
       </c>
       <c r="D60" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A60,1))&amp;RIGHT(A60,LEN(A60)-1),", ",UPPER(LEFT(B60,1))&amp;RIGHT(B60,LEN(B60)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Circulate around, Circulate, All</v>
       </c>
     </row>
@@ -3994,11 +4003,11 @@
         <v>296</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A61,", ",B61,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, classify into groups, classify, All</v>
       </c>
       <c r="D61" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A61,1))&amp;RIGHT(A61,LEN(A61)-1),", ",UPPER(LEFT(B61,1))&amp;RIGHT(B61,LEN(B61)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Classify into groups, Classify, All</v>
       </c>
     </row>
@@ -4010,11 +4019,11 @@
         <v>387</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A62,", ",B62,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, fellow classmate, classmate, All</v>
       </c>
       <c r="D62" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A62,1))&amp;RIGHT(A62,LEN(A62)-1),", ",UPPER(LEFT(B62,1))&amp;RIGHT(B62,LEN(B62)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Fellow classmate, Classmate, All</v>
       </c>
     </row>
@@ -4026,11 +4035,11 @@
         <v>561</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A63,", ",B63,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, old cliche, cliche, All</v>
       </c>
       <c r="D63" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A63,1))&amp;RIGHT(A63,LEN(A63)-1),", ",UPPER(LEFT(B63,1))&amp;RIGHT(B63,LEN(B63)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Old cliche, Cliche, All</v>
       </c>
     </row>
@@ -4042,11 +4051,11 @@
         <v>561</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A64,", ",B64,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, overused cliche, cliche, All</v>
       </c>
       <c r="D64" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A64,1))&amp;RIGHT(A64,LEN(A64)-1),", ",UPPER(LEFT(B64,1))&amp;RIGHT(B64,LEN(B64)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Overused cliche, Cliche, All</v>
       </c>
     </row>
@@ -4058,11 +4067,11 @@
         <v>95</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A65,", ",B65,", All")</f>
+        <f t="shared" si="0"/>
         <v>stringReplace, contents, contents, collaborate together, collaborate, All</v>
       </c>
       <c r="D65" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A65,1))&amp;RIGHT(A65,LEN(A65)-1),", ",UPPER(LEFT(B65,1))&amp;RIGHT(B65,LEN(B65)-1),", All")</f>
+        <f t="shared" si="1"/>
         <v>stringReplace, contents, contents, Collaborate together, Collaborate, All</v>
       </c>
     </row>
@@ -4074,11 +4083,11 @@
         <v>479</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A66,", ",B66,", All")</f>
+        <f t="shared" ref="C66:C129" si="2">CONCATENATE("stringReplace, contents, contents, ",A66,", ",B66,", All")</f>
         <v>stringReplace, contents, contents, joint collaboration, collaboration, All</v>
       </c>
       <c r="D66" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A66,1))&amp;RIGHT(A66,LEN(A66)-1),", ",UPPER(LEFT(B66,1))&amp;RIGHT(B66,LEN(B66)-1),", All")</f>
+        <f t="shared" ref="D66:D129" si="3">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A66,1))&amp;RIGHT(A66,LEN(A66)-1),", ",UPPER(LEFT(B66,1))&amp;RIGHT(B66,LEN(B66)-1),", All")</f>
         <v>stringReplace, contents, contents, Joint collaboration, Collaboration, All</v>
       </c>
     </row>
@@ -4090,11 +4099,11 @@
         <v>395</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A67,", ",B67,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, fellow colleague, colleague, All</v>
       </c>
       <c r="D67" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A67,1))&amp;RIGHT(A67,LEN(A67)-1),", ",UPPER(LEFT(B67,1))&amp;RIGHT(B67,LEN(B67)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Fellow colleague, Colleague, All</v>
       </c>
     </row>
@@ -4106,11 +4115,11 @@
         <v>300</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A68,", ",B68,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, combine together, combine, All</v>
       </c>
       <c r="D68" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A68,1))&amp;RIGHT(A68,LEN(A68)-1),", ",UPPER(LEFT(B68,1))&amp;RIGHT(B68,LEN(B68)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Combine together, Combine, All</v>
       </c>
     </row>
@@ -4122,11 +4131,11 @@
         <v>302</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A69,", ",B69,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, commute back and forth, commute, All</v>
       </c>
       <c r="D69" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A69,1))&amp;RIGHT(A69,LEN(A69)-1),", ",UPPER(LEFT(B69,1))&amp;RIGHT(B69,LEN(B69)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Commute back and forth, Commute, All</v>
       </c>
     </row>
@@ -4138,11 +4147,11 @@
         <v>304</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A70,", ",B70,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, compete with each other, compete, All</v>
       </c>
       <c r="D70" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A70,1))&amp;RIGHT(A70,LEN(A70)-1),", ",UPPER(LEFT(B70,1))&amp;RIGHT(B70,LEN(B70)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Compete with each other, Compete, All</v>
       </c>
     </row>
@@ -4154,11 +4163,11 @@
         <v>406</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A71,", ",B71,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, first conceive, conceive, All</v>
       </c>
       <c r="D71" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A71,1))&amp;RIGHT(A71,LEN(A71)-1),", ",UPPER(LEFT(B71,1))&amp;RIGHT(B71,LEN(B71)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, First conceive, Conceive, All</v>
       </c>
     </row>
@@ -4170,11 +4179,11 @@
         <v>399</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A72,", ",B72,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, final conclusion, conclusion, All</v>
       </c>
       <c r="D72" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A72,1))&amp;RIGHT(A72,LEN(A72)-1),", ",UPPER(LEFT(B72,1))&amp;RIGHT(B72,LEN(B72)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Final conclusion, Conclusion, All</v>
       </c>
     </row>
@@ -4186,11 +4195,11 @@
         <v>320</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A73,", ",B73,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, confer together, confer, All</v>
       </c>
       <c r="D73" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A73,1))&amp;RIGHT(A73,LEN(A73)-1),", ",UPPER(LEFT(B73,1))&amp;RIGHT(B73,LEN(B73)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Confer together, Confer, All</v>
       </c>
     </row>
@@ -4202,11 +4211,11 @@
         <v>115</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A74,", ",B74,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, direct confrontation, confrontation, All</v>
       </c>
       <c r="D74" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A74,1))&amp;RIGHT(A74,LEN(A74)-1),", ",UPPER(LEFT(B74,1))&amp;RIGHT(B74,LEN(B74)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Direct confrontation, Confrontation, All</v>
       </c>
     </row>
@@ -4218,11 +4227,11 @@
         <v>325</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A75,", ",B75,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, confused state, confused, All</v>
       </c>
       <c r="D75" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A75,1))&amp;RIGHT(A75,LEN(A75)-1),", ",UPPER(LEFT(B75,1))&amp;RIGHT(B75,LEN(B75)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Confused state, Confused, All</v>
       </c>
     </row>
@@ -4234,11 +4243,11 @@
         <v>322</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A76,", ",B76,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, connect together, connect, All</v>
       </c>
       <c r="D76" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A76,1))&amp;RIGHT(A76,LEN(A76)-1),", ",UPPER(LEFT(B76,1))&amp;RIGHT(B76,LEN(B76)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Connect together, Connect, All</v>
       </c>
     </row>
@@ -4250,11 +4259,11 @@
         <v>322</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A77,", ",B77,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, connect up, connect, All</v>
       </c>
       <c r="D77" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A77,1))&amp;RIGHT(A77,LEN(A77)-1),", ",UPPER(LEFT(B77,1))&amp;RIGHT(B77,LEN(B77)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Connect up, Connect, All</v>
       </c>
     </row>
@@ -4266,11 +4275,11 @@
         <v>327</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A78,", ",B78,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, consensus of opinion, consensus, All</v>
       </c>
       <c r="D78" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A78,1))&amp;RIGHT(A78,LEN(A78)-1),", ",UPPER(LEFT(B78,1))&amp;RIGHT(B78,LEN(B78)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Consensus of opinion, Consensus, All</v>
       </c>
     </row>
@@ -4282,11 +4291,11 @@
         <v>12</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A79,", ",B79,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, take into consideration, consider, All</v>
       </c>
       <c r="D79" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A79,1))&amp;RIGHT(A79,LEN(A79)-1),", ",UPPER(LEFT(B79,1))&amp;RIGHT(B79,LEN(B79)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Take into consideration, Consider, All</v>
       </c>
     </row>
@@ -4298,11 +4307,11 @@
         <v>545</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A80,", ",B80,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, new construction, construction, All</v>
       </c>
       <c r="D80" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A80,1))&amp;RIGHT(A80,LEN(A80)-1),", ",UPPER(LEFT(B80,1))&amp;RIGHT(B80,LEN(B80)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, New construction, Construction, All</v>
       </c>
     </row>
@@ -4314,11 +4323,11 @@
         <v>570</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A81,", ",B81,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, oral conversation, conversation, All</v>
       </c>
       <c r="D81" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A81,1))&amp;RIGHT(A81,LEN(A81)-1),", ",UPPER(LEFT(B81,1))&amp;RIGHT(B81,LEN(B81)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Oral conversation, Conversation, All</v>
       </c>
     </row>
@@ -4330,11 +4339,11 @@
         <v>331</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A82,", ",B82,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, cooperate together, cooperate, All</v>
       </c>
       <c r="D82" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A82,1))&amp;RIGHT(A82,LEN(A82)-1),", ",UPPER(LEFT(B82,1))&amp;RIGHT(B82,LEN(B82)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Cooperate together, Cooperate, All</v>
       </c>
     </row>
@@ -4346,11 +4355,11 @@
         <v>526</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A83,", ",B83,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, mutual cooperation, cooperation, All</v>
       </c>
       <c r="D83" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A83,1))&amp;RIGHT(A83,LEN(A83)-1),", ",UPPER(LEFT(B83,1))&amp;RIGHT(B83,LEN(B83)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Mutual cooperation, Cooperation, All</v>
       </c>
     </row>
@@ -4362,11 +4371,11 @@
         <v>793</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A84,", ",B84,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, copper in color, copper, All</v>
       </c>
       <c r="D84" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A84,1))&amp;RIGHT(A84,LEN(A84)-1),", ",UPPER(LEFT(B84,1))&amp;RIGHT(B84,LEN(B84)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Copper in color, Copper, All</v>
       </c>
     </row>
@@ -4378,11 +4387,11 @@
         <v>333</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A85,", ",B85,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, could possibly, could, All</v>
       </c>
       <c r="D85" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A85,1))&amp;RIGHT(A85,LEN(A85)-1),", ",UPPER(LEFT(B85,1))&amp;RIGHT(B85,LEN(B85)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Could possibly, Could, All</v>
       </c>
     </row>
@@ -4394,11 +4403,11 @@
         <v>572</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A86,", ",B86,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, originally creat, creat, All</v>
       </c>
       <c r="D86" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A86,1))&amp;RIGHT(A86,LEN(A86)-1),", ",UPPER(LEFT(B86,1))&amp;RIGHT(B86,LEN(B86)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Originally creat, Creat, All</v>
       </c>
     </row>
@@ -4410,11 +4419,11 @@
         <v>335</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A87,", ",B87,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, crisis situation, crisis, All</v>
       </c>
       <c r="D87" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A87,1))&amp;RIGHT(A87,LEN(A87)-1),", ",UPPER(LEFT(B87,1))&amp;RIGHT(B87,LEN(B87)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Crisis situation, Crisis, All</v>
       </c>
     </row>
@@ -4426,11 +4435,11 @@
         <v>337</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A88,", ",B88,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, curative process, curative, All</v>
       </c>
       <c r="D88" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A88,1))&amp;RIGHT(A88,LEN(A88)-1),", ",UPPER(LEFT(B88,1))&amp;RIGHT(B88,LEN(B88)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Curative process, Curative, All</v>
       </c>
     </row>
@@ -4442,11 +4451,11 @@
         <v>199</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A89,", ",B89,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, usual custom, custom, All</v>
       </c>
       <c r="D89" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A89,1))&amp;RIGHT(A89,LEN(A89)-1),", ",UPPER(LEFT(B89,1))&amp;RIGHT(B89,LEN(B89)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Usual custom, Custom, All</v>
       </c>
     </row>
@@ -4458,11 +4467,11 @@
         <v>199</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A90,", ",B90,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, old custom, custom, All</v>
       </c>
       <c r="D90" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A90,1))&amp;RIGHT(A90,LEN(A90)-1),", ",UPPER(LEFT(B90,1))&amp;RIGHT(B90,LEN(B90)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Old custom, Custom, All</v>
       </c>
     </row>
@@ -4474,11 +4483,11 @@
         <v>783</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A91,", ",B91,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, cyan in color, cyan, All</v>
       </c>
       <c r="D91" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A91,1))&amp;RIGHT(A91,LEN(A91)-1),", ",UPPER(LEFT(B91,1))&amp;RIGHT(B91,LEN(B91)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Cyan in color, Cyan, All</v>
       </c>
     </row>
@@ -4490,11 +4499,11 @@
         <v>56</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A92,", ",B92,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, on a daily basis, daily, All</v>
       </c>
       <c r="D92" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A92,1))&amp;RIGHT(A92,LEN(A92)-1),", ",UPPER(LEFT(B92,1))&amp;RIGHT(B92,LEN(B92)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, On a daily basis, Daily, All</v>
       </c>
     </row>
@@ -4506,11 +4515,11 @@
         <v>43</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A93,", ",B93,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, do damage to, damage, All</v>
       </c>
       <c r="D93" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A93,1))&amp;RIGHT(A93,LEN(A93)-1),", ",UPPER(LEFT(B93,1))&amp;RIGHT(B93,LEN(B93)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Do damage to, Damage, All</v>
       </c>
     </row>
@@ -4522,11 +4531,11 @@
         <v>677</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A94,", ",B94,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, serious danger, danger, All</v>
       </c>
       <c r="D94" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A94,1))&amp;RIGHT(A94,LEN(A94)-1),", ",UPPER(LEFT(B94,1))&amp;RIGHT(B94,LEN(B94)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Serious danger, Danger, All</v>
       </c>
     </row>
@@ -4538,11 +4547,11 @@
         <v>112</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A95,", ",B95,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, definite decision, decision, All</v>
       </c>
       <c r="D95" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A95,1))&amp;RIGHT(A95,LEN(A95)-1),", ",UPPER(LEFT(B95,1))&amp;RIGHT(B95,LEN(B95)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Definite decision, Decision, All</v>
       </c>
     </row>
@@ -4554,11 +4563,11 @@
         <v>344</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A96,", ",B96,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, depreciate in value, depreciate, All</v>
       </c>
       <c r="D96" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A96,1))&amp;RIGHT(A96,LEN(A96)-1),", ",UPPER(LEFT(B96,1))&amp;RIGHT(B96,LEN(B96)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Depreciate in value, Depreciate, All</v>
       </c>
     </row>
@@ -4570,11 +4579,11 @@
         <v>346</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A97,", ",B97,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, descend down, descend, All</v>
       </c>
       <c r="D97" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A97,1))&amp;RIGHT(A97,LEN(A97)-1),", ",UPPER(LEFT(B97,1))&amp;RIGHT(B97,LEN(B97)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Descend down, Descend, All</v>
       </c>
     </row>
@@ -4586,11 +4595,11 @@
         <v>308</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A98,", ",B98,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, completely destroy, destroy, All</v>
       </c>
       <c r="D98" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A98,1))&amp;RIGHT(A98,LEN(A98)-1),", ",UPPER(LEFT(B98,1))&amp;RIGHT(B98,LEN(B98)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Completely destroy, Destroy, All</v>
       </c>
     </row>
@@ -4602,11 +4611,11 @@
         <v>727</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A99,", ",B99,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, total destruction, destruction, All</v>
       </c>
       <c r="D99" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A99,1))&amp;RIGHT(A99,LEN(A99)-1),", ",UPPER(LEFT(B99,1))&amp;RIGHT(B99,LEN(B99)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Total destruction, Destruction, All</v>
       </c>
     </row>
@@ -4618,11 +4627,11 @@
         <v>113</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A100,", ",B100,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, difficult dilemma, dilemma, All</v>
       </c>
       <c r="D100" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A100,1))&amp;RIGHT(A100,LEN(A100)-1),", ",UPPER(LEFT(B100,1))&amp;RIGHT(B100,LEN(B100)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Difficult dilemma, Dilemma, All</v>
       </c>
     </row>
@@ -4634,11 +4643,11 @@
         <v>352</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A101,", ",B101,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, disappear from sight, disappear, All</v>
       </c>
       <c r="D101" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A101,1))&amp;RIGHT(A101,LEN(A101)-1),", ",UPPER(LEFT(B101,1))&amp;RIGHT(B101,LEN(B101)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Disappear from sight, Disappear, All</v>
       </c>
     </row>
@@ -4650,11 +4659,11 @@
         <v>458</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A102,", ",B102,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, illustrated drawing, drawing, All</v>
       </c>
       <c r="D102" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A102,1))&amp;RIGHT(A102,LEN(A102)-1),", ",UPPER(LEFT(B102,1))&amp;RIGHT(B102,LEN(B102)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Illustrated drawing, Drawing, All</v>
       </c>
     </row>
@@ -4666,11 +4675,11 @@
         <v>370</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A103,", ",B103,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, drop down, drop, All</v>
       </c>
       <c r="D103" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A103,1))&amp;RIGHT(A103,LEN(A103)-1),", ",UPPER(LEFT(B103,1))&amp;RIGHT(B103,LEN(B103)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Drop down, Drop, All</v>
       </c>
     </row>
@@ -4682,11 +4691,11 @@
         <v>669</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A104,", ",B104,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, sand dune, dune, All</v>
       </c>
       <c r="D104" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A104,1))&amp;RIGHT(A104,LEN(A104)-1),", ",UPPER(LEFT(B104,1))&amp;RIGHT(B104,LEN(B104)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Sand dune, Dune, All</v>
       </c>
     </row>
@@ -4698,11 +4707,11 @@
         <v>35</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A105,", ",B105,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, during the course of, during, All</v>
       </c>
       <c r="D105" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A105,1))&amp;RIGHT(A105,LEN(A105)-1),", ",UPPER(LEFT(B105,1))&amp;RIGHT(B105,LEN(B105)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, During the course of, During, All</v>
       </c>
     </row>
@@ -4714,11 +4723,11 @@
         <v>110</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A106,", ",B106,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, during a course of, during a, All</v>
       </c>
       <c r="D106" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A106,1))&amp;RIGHT(A106,LEN(A106)-1),", ",UPPER(LEFT(B106,1))&amp;RIGHT(B106,LEN(B106)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, During a course of, During a, All</v>
       </c>
     </row>
@@ -4730,11 +4739,11 @@
         <v>108</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A107,", ",B107,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, during the course of, during the, All</v>
       </c>
       <c r="D107" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A107,1))&amp;RIGHT(A107,LEN(A107)-1),", ",UPPER(LEFT(B107,1))&amp;RIGHT(B107,LEN(B107)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, During the course of, During the, All</v>
       </c>
     </row>
@@ -4746,11 +4755,11 @@
         <v>371</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A108,", ",B108,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, dwindle down, dwindle, All</v>
       </c>
       <c r="D108" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A108,1))&amp;RIGHT(A108,LEN(A108)-1),", ",UPPER(LEFT(B108,1))&amp;RIGHT(B108,LEN(B108)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Dwindle down, Dwindle, All</v>
       </c>
     </row>
@@ -4762,11 +4771,11 @@
         <v>372</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A109,", ",B109,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, each and every, each, All</v>
       </c>
       <c r="D109" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A109,1))&amp;RIGHT(A109,LEN(A109)-1),", ",UPPER(LEFT(B109,1))&amp;RIGHT(B109,LEN(B109)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Each and every, Each, All</v>
       </c>
     </row>
@@ -4778,11 +4787,11 @@
         <v>373</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A110,", ",B110,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, earlier in time, earlier, All</v>
       </c>
       <c r="D110" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A110,1))&amp;RIGHT(A110,LEN(A110)-1),", ",UPPER(LEFT(B110,1))&amp;RIGHT(B110,LEN(B110)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Earlier in time, Earlier, All</v>
       </c>
     </row>
@@ -4794,11 +4803,11 @@
         <v>310</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A111,", ",B111,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, completely eliminate, eliminate, All</v>
       </c>
       <c r="D111" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A111,1))&amp;RIGHT(A111,LEN(A111)-1),", ",UPPER(LEFT(B111,1))&amp;RIGHT(B111,LEN(B111)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Completely eliminate, Eliminate, All</v>
       </c>
     </row>
@@ -4810,11 +4819,11 @@
         <v>310</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A112,", ",B112,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, eliminate altogether, eliminate, All</v>
       </c>
       <c r="D112" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A112,1))&amp;RIGHT(A112,LEN(A112)-1),", ",UPPER(LEFT(B112,1))&amp;RIGHT(B112,LEN(B112)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Eliminate altogether, Eliminate, All</v>
       </c>
     </row>
@@ -4826,11 +4835,11 @@
         <v>310</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A113,", ",B113,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, entirely eliminate, eliminate, All</v>
       </c>
       <c r="D113" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A113,1))&amp;RIGHT(A113,LEN(A113)-1),", ",UPPER(LEFT(B113,1))&amp;RIGHT(B113,LEN(B113)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Entirely eliminate, Eliminate, All</v>
       </c>
     </row>
@@ -4842,11 +4851,11 @@
         <v>277</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A114,", ",B114,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, burning embers, embers, All</v>
       </c>
       <c r="D114" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A114,1))&amp;RIGHT(A114,LEN(A114)-1),", ",UPPER(LEFT(B114,1))&amp;RIGHT(B114,LEN(B114)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Burning embers, Embers, All</v>
       </c>
     </row>
@@ -4858,11 +4867,11 @@
         <v>374</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A115,", ",B115,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, emergency situation, emergency, All</v>
       </c>
       <c r="D115" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A115,1))&amp;RIGHT(A115,LEN(A115)-1),", ",UPPER(LEFT(B115,1))&amp;RIGHT(B115,LEN(B115)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Emergency situation, Emergency, All</v>
       </c>
     </row>
@@ -4874,11 +4883,11 @@
         <v>374</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A116,", ",B116,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, unexpected emergency, emergency, All</v>
       </c>
       <c r="D116" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A116,1))&amp;RIGHT(A116,LEN(A116)-1),", ",UPPER(LEFT(B116,1))&amp;RIGHT(B116,LEN(B116)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Unexpected emergency, Emergency, All</v>
       </c>
     </row>
@@ -4890,11 +4899,11 @@
         <v>376</v>
       </c>
       <c r="C117" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A117,", ",B117,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, empty out, empty, All</v>
       </c>
       <c r="D117" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A117,1))&amp;RIGHT(A117,LEN(A117)-1),", ",UPPER(LEFT(B117,1))&amp;RIGHT(B117,LEN(B117)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Empty out, Empty, All</v>
       </c>
     </row>
@@ -4906,11 +4915,11 @@
         <v>378</v>
       </c>
       <c r="C118" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A118,", ",B118,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, enclosed herein, enclosed, All</v>
       </c>
       <c r="D118" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A118,1))&amp;RIGHT(A118,LEN(A118)-1),", ",UPPER(LEFT(B118,1))&amp;RIGHT(B118,LEN(B118)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Enclosed herein, Enclosed, All</v>
       </c>
     </row>
@@ -4922,11 +4931,11 @@
         <v>401</v>
       </c>
       <c r="C119" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A119,", ",B119,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, final end, end, All</v>
       </c>
       <c r="D119" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A119,1))&amp;RIGHT(A119,LEN(A119)-1),", ",UPPER(LEFT(B119,1))&amp;RIGHT(B119,LEN(B119)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Final end, End, All</v>
       </c>
     </row>
@@ -4938,11 +4947,11 @@
         <v>312</v>
       </c>
       <c r="C120" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A120,", ",B120,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, completely engulf, engulf, All</v>
       </c>
       <c r="D120" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A120,1))&amp;RIGHT(A120,LEN(A120)-1),", ",UPPER(LEFT(B120,1))&amp;RIGHT(B120,LEN(B120)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Completely engulf, Engulf, All</v>
       </c>
     </row>
@@ -4954,11 +4963,11 @@
         <v>121</v>
       </c>
       <c r="C121" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A121,", ",B121,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, enter in, enter, All</v>
       </c>
       <c r="D121" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A121,1))&amp;RIGHT(A121,LEN(A121)-1),", ",UPPER(LEFT(B121,1))&amp;RIGHT(B121,LEN(B121)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Enter in, Enter, All</v>
       </c>
     </row>
@@ -4970,11 +4979,11 @@
         <v>379</v>
       </c>
       <c r="C122" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A122,", ",B122,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, equal to one another, equal, All</v>
       </c>
       <c r="D122" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A122,1))&amp;RIGHT(A122,LEN(A122)-1),", ",UPPER(LEFT(B122,1))&amp;RIGHT(B122,LEN(B122)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Equal to one another, Equal, All</v>
       </c>
     </row>
@@ -4986,11 +4995,11 @@
         <v>380</v>
       </c>
       <c r="C123" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A123,", ",B123,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, eradicate completely, eradicate, All</v>
       </c>
       <c r="D123" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A123,1))&amp;RIGHT(A123,LEN(A123)-1),", ",UPPER(LEFT(B123,1))&amp;RIGHT(B123,LEN(B123)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Eradicate completely, Eradicate, All</v>
       </c>
     </row>
@@ -5002,11 +5011,11 @@
         <v>70</v>
       </c>
       <c r="C124" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A124,", ",B124,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, absolutely essential, essential, All</v>
       </c>
       <c r="D124" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A124,1))&amp;RIGHT(A124,LEN(A124)-1),", ",UPPER(LEFT(B124,1))&amp;RIGHT(B124,LEN(B124)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Absolutely essential, Essential, All</v>
       </c>
     </row>
@@ -5018,11 +5027,11 @@
         <v>70</v>
       </c>
       <c r="C125" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A125,", ",B125,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, basic essential, essential, All</v>
       </c>
       <c r="D125" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A125,1))&amp;RIGHT(A125,LEN(A125)-1),", ",UPPER(LEFT(B125,1))&amp;RIGHT(B125,LEN(B125)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Basic essential, Essential, All</v>
       </c>
     </row>
@@ -5034,11 +5043,11 @@
         <v>123</v>
       </c>
       <c r="C126" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A126,", ",B126,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, estimated at about, estimated, All</v>
       </c>
       <c r="D126" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A126,1))&amp;RIGHT(A126,LEN(A126)-1),", ",UPPER(LEFT(B126,1))&amp;RIGHT(B126,LEN(B126)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Estimated at about, Estimated, All</v>
       </c>
     </row>
@@ -5050,11 +5059,11 @@
         <v>123</v>
       </c>
       <c r="C127" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A127,", ",B127,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, estimated roughly, estimated, All</v>
       </c>
       <c r="D127" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A127,1))&amp;RIGHT(A127,LEN(A127)-1),", ",UPPER(LEFT(B127,1))&amp;RIGHT(B127,LEN(B127)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Estimated roughly, Estimated, All</v>
       </c>
     </row>
@@ -5066,11 +5075,11 @@
         <v>381</v>
       </c>
       <c r="C128" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A128,", ",B128,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, estimated at about, estimated at, All</v>
       </c>
       <c r="D128" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A128,1))&amp;RIGHT(A128,LEN(A128)-1),", ",UPPER(LEFT(B128,1))&amp;RIGHT(B128,LEN(B128)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Estimated at about, Estimated at, All</v>
       </c>
     </row>
@@ -5082,11 +5091,11 @@
         <v>127</v>
       </c>
       <c r="C129" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A129,", ",B129,", All")</f>
+        <f t="shared" si="2"/>
         <v>stringReplace, contents, contents, estimates at about, estimates, All</v>
       </c>
       <c r="D129" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A129,1))&amp;RIGHT(A129,LEN(A129)-1),", ",UPPER(LEFT(B129,1))&amp;RIGHT(B129,LEN(B129)-1),", All")</f>
+        <f t="shared" si="3"/>
         <v>stringReplace, contents, contents, Estimates at about, Estimates, All</v>
       </c>
     </row>
@@ -5098,11 +5107,11 @@
         <v>127</v>
       </c>
       <c r="C130" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A130,", ",B130,", All")</f>
+        <f t="shared" ref="C130:C193" si="4">CONCATENATE("stringReplace, contents, contents, ",A130,", ",B130,", All")</f>
         <v>stringReplace, contents, contents, estimates roughly, estimates, All</v>
       </c>
       <c r="D130" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A130,1))&amp;RIGHT(A130,LEN(A130)-1),", ",UPPER(LEFT(B130,1))&amp;RIGHT(B130,LEN(B130)-1),", All")</f>
+        <f t="shared" ref="D130:D193" si="5">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A130,1))&amp;RIGHT(A130,LEN(A130)-1),", ",UPPER(LEFT(B130,1))&amp;RIGHT(B130,LEN(B130)-1),", All")</f>
         <v>stringReplace, contents, contents, Estimates roughly, Estimates, All</v>
       </c>
     </row>
@@ -5114,11 +5123,11 @@
         <v>232</v>
       </c>
       <c r="C131" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A131,", ",B131,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, and etc., etc., All</v>
       </c>
       <c r="D131" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A131,1))&amp;RIGHT(A131,LEN(A131)-1),", ",UPPER(LEFT(B131,1))&amp;RIGHT(B131,LEN(B131)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, And etc., Etc., All</v>
       </c>
     </row>
@@ -5130,11 +5139,11 @@
         <v>382</v>
       </c>
       <c r="C132" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A132,", ",B132,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, evolve over time, evolve, All</v>
       </c>
       <c r="D132" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A132,1))&amp;RIGHT(A132,LEN(A132)-1),", ",UPPER(LEFT(B132,1))&amp;RIGHT(B132,LEN(B132)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Evolve over time, Evolve, All</v>
       </c>
     </row>
@@ -5146,11 +5155,11 @@
         <v>0</v>
       </c>
       <c r="C133" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A133,", ",B133,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, overexaggerate, exaggerate, All</v>
       </c>
       <c r="D133" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A133,1))&amp;RIGHT(A133,LEN(A133)-1),", ",UPPER(LEFT(B133,1))&amp;RIGHT(B133,LEN(B133)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Overexaggerate, Exaggerate, All</v>
       </c>
     </row>
@@ -5162,11 +5171,11 @@
         <v>0</v>
       </c>
       <c r="C134" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A134,", ",B134,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, over exaggerate, exaggerate, All</v>
       </c>
       <c r="D134" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A134,1))&amp;RIGHT(A134,LEN(A134)-1),", ",UPPER(LEFT(B134,1))&amp;RIGHT(B134,LEN(B134)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Over exaggerate, Exaggerate, All</v>
       </c>
     </row>
@@ -5178,11 +5187,11 @@
         <v>10</v>
       </c>
       <c r="C135" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A135,", ",B135,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, with the exception of, except, All</v>
       </c>
       <c r="D135" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A135,1))&amp;RIGHT(A135,LEN(A135)-1),", ",UPPER(LEFT(B135,1))&amp;RIGHT(B135,LEN(B135)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, With the exception of, Except, All</v>
       </c>
     </row>
@@ -5194,11 +5203,11 @@
         <v>72</v>
       </c>
       <c r="C136" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A136,", ",B136,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, actual experience, experience, All</v>
       </c>
       <c r="D136" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A136,1))&amp;RIGHT(A136,LEN(A136)-1),", ",UPPER(LEFT(B136,1))&amp;RIGHT(B136,LEN(B136)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Actual experience, Experience, All</v>
       </c>
     </row>
@@ -5210,11 +5219,11 @@
         <v>72</v>
       </c>
       <c r="C137" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A137,", ",B137,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, past experience, experience, All</v>
       </c>
       <c r="D137" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A137,1))&amp;RIGHT(A137,LEN(A137)-1),", ",UPPER(LEFT(B137,1))&amp;RIGHT(B137,LEN(B137)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Past experience, Experience, All</v>
       </c>
     </row>
@@ -5226,11 +5235,11 @@
         <v>483</v>
       </c>
       <c r="C138" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A138,", ",B138,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, knowledgeable expert, expert, All</v>
       </c>
       <c r="D138" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A138,1))&amp;RIGHT(A138,LEN(A138)-1),", ",UPPER(LEFT(B138,1))&amp;RIGHT(B138,LEN(B138)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Knowledgeable expert, Expert, All</v>
       </c>
     </row>
@@ -5242,11 +5251,11 @@
         <v>191</v>
       </c>
       <c r="C139" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A139,", ",B139,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, suddenly explod, explod, All</v>
       </c>
       <c r="D139" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A139,1))&amp;RIGHT(A139,LEN(A139)-1),", ",UPPER(LEFT(B139,1))&amp;RIGHT(B139,LEN(B139)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Suddenly explod, Explod, All</v>
       </c>
     </row>
@@ -5258,11 +5267,11 @@
         <v>385</v>
       </c>
       <c r="C140" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A140,", ",B140,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, extradite back, extradite, All</v>
       </c>
       <c r="D140" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A140,1))&amp;RIGHT(A140,LEN(A140)-1),", ",UPPER(LEFT(B140,1))&amp;RIGHT(B140,LEN(B140)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Extradite back, Extradite, All</v>
       </c>
     </row>
@@ -5274,11 +5283,11 @@
         <v>8</v>
       </c>
       <c r="C141" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A141,", ",B141,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, actual fact, fact, All</v>
       </c>
       <c r="D141" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A141,1))&amp;RIGHT(A141,LEN(A141)-1),", ",UPPER(LEFT(B141,1))&amp;RIGHT(B141,LEN(B141)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Actual fact, Fact, All</v>
       </c>
     </row>
@@ -5290,11 +5299,11 @@
         <v>8</v>
       </c>
       <c r="C142" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A142,", ",B142,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, true fact, fact, All</v>
       </c>
       <c r="D142" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A142,1))&amp;RIGHT(A142,LEN(A142)-1),", ",UPPER(LEFT(B142,1))&amp;RIGHT(B142,LEN(B142)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, True fact, Fact, All</v>
       </c>
     </row>
@@ -5306,11 +5315,11 @@
         <v>213</v>
       </c>
       <c r="C143" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A143,", ",B143,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, actual facts, facts, All</v>
       </c>
       <c r="D143" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A143,1))&amp;RIGHT(A143,LEN(A143)-1),", ",UPPER(LEFT(B143,1))&amp;RIGHT(B143,LEN(B143)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Actual facts, Facts, All</v>
       </c>
     </row>
@@ -5322,11 +5331,11 @@
         <v>586</v>
       </c>
       <c r="C144" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A144,", ",B144,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, passing fad, fad, All</v>
       </c>
       <c r="D144" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A144,1))&amp;RIGHT(A144,LEN(A144)-1),", ",UPPER(LEFT(B144,1))&amp;RIGHT(B144,LEN(B144)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Passing fad, Fad, All</v>
       </c>
     </row>
@@ -5338,11 +5347,11 @@
         <v>391</v>
       </c>
       <c r="C145" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A145,", ",B145,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, fall down, fall, All</v>
       </c>
       <c r="D145" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A145,1))&amp;RIGHT(A145,LEN(A145)-1),", ",UPPER(LEFT(B145,1))&amp;RIGHT(B145,LEN(B145)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Fall down, Fall, All</v>
       </c>
     </row>
@@ -5354,11 +5363,11 @@
         <v>509</v>
       </c>
       <c r="C146" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A146,", ",B146,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, major feat, feat, All</v>
       </c>
       <c r="D146" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A146,1))&amp;RIGHT(A146,LEN(A146)-1),", ",UPPER(LEFT(B146,1))&amp;RIGHT(B146,LEN(B146)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Major feat, Feat, All</v>
       </c>
     </row>
@@ -5370,11 +5379,11 @@
         <v>131</v>
       </c>
       <c r="C147" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A147,", ",B147,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, few in number, few, All</v>
       </c>
       <c r="D147" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A147,1))&amp;RIGHT(A147,LEN(A147)-1),", ",UPPER(LEFT(B147,1))&amp;RIGHT(B147,LEN(B147)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Few in number, Few, All</v>
       </c>
     </row>
@@ -5386,11 +5395,11 @@
         <v>314</v>
       </c>
       <c r="C148" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A148,", ",B148,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, completely fill, fill, All</v>
       </c>
       <c r="D148" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A148,1))&amp;RIGHT(A148,LEN(A148)-1),", ",UPPER(LEFT(B148,1))&amp;RIGHT(B148,LEN(B148)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Completely fill, Fill, All</v>
       </c>
     </row>
@@ -5402,11 +5411,11 @@
         <v>103</v>
       </c>
       <c r="C149" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A149,", ",B149,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, completely filled, filled, All</v>
       </c>
       <c r="D149" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A149,1))&amp;RIGHT(A149,LEN(A149)-1),", ",UPPER(LEFT(B149,1))&amp;RIGHT(B149,LEN(B149)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Completely filled, Filled, All</v>
       </c>
     </row>
@@ -5418,11 +5427,11 @@
         <v>397</v>
       </c>
       <c r="C150" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A150,", ",B150,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, filled to capacity, filled , All</v>
       </c>
       <c r="D150" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A150,1))&amp;RIGHT(A150,LEN(A150)-1),", ",UPPER(LEFT(B150,1))&amp;RIGHT(B150,LEN(B150)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Filled to capacity, Filled , All</v>
       </c>
     </row>
@@ -5434,11 +5443,11 @@
         <v>149</v>
       </c>
       <c r="C151" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A151,", ",B151,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, completely finish, finish, All</v>
       </c>
       <c r="D151" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A151,1))&amp;RIGHT(A151,LEN(A151)-1),", ",UPPER(LEFT(B151,1))&amp;RIGHT(B151,LEN(B151)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Completely finish, Finish, All</v>
       </c>
     </row>
@@ -5450,11 +5459,11 @@
         <v>33</v>
       </c>
       <c r="C152" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A152,", ",B152,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, first and foremost, first, All</v>
       </c>
       <c r="D152" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A152,1))&amp;RIGHT(A152,LEN(A152)-1),", ",UPPER(LEFT(B152,1))&amp;RIGHT(B152,LEN(B152)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, First and foremost, First, All</v>
       </c>
     </row>
@@ -5466,11 +5475,11 @@
         <v>408</v>
       </c>
       <c r="C153" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A153,", ",B153,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, first of all, first , All</v>
       </c>
       <c r="D153" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A153,1))&amp;RIGHT(A153,LEN(A153)-1),", ",UPPER(LEFT(B153,1))&amp;RIGHT(B153,LEN(B153)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, First of all, First , All</v>
       </c>
     </row>
@@ -5482,11 +5491,11 @@
         <v>298</v>
       </c>
       <c r="C154" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A154,", ",B154,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, closed fist, fist, All</v>
       </c>
       <c r="D154" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A154,1))&amp;RIGHT(A154,LEN(A154)-1),", ",UPPER(LEFT(B154,1))&amp;RIGHT(B154,LEN(B154)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Closed fist, Fist, All</v>
       </c>
     </row>
@@ -5498,11 +5507,11 @@
         <v>797</v>
       </c>
       <c r="C155" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A155,", ",B155,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, flesh in color, flesh, All</v>
       </c>
       <c r="D155" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A155,1))&amp;RIGHT(A155,LEN(A155)-1),", ",UPPER(LEFT(B155,1))&amp;RIGHT(B155,LEN(B155)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Flesh in color, Flesh, All</v>
       </c>
     </row>
@@ -5514,11 +5523,11 @@
         <v>410</v>
       </c>
       <c r="C156" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A156,", ",B156,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, fly through the air, fly , All</v>
       </c>
       <c r="D156" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A156,1))&amp;RIGHT(A156,LEN(A156)-1),", ",UPPER(LEFT(B156,1))&amp;RIGHT(B156,LEN(B156)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Fly through the air, Fly , All</v>
       </c>
     </row>
@@ -5530,11 +5539,11 @@
         <v>412</v>
       </c>
       <c r="C157" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A157,", ",B157,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, follow after, follow , All</v>
       </c>
       <c r="D157" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A157,1))&amp;RIGHT(A157,LEN(A157)-1),", ",UPPER(LEFT(B157,1))&amp;RIGHT(B157,LEN(B157)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Follow after, Follow , All</v>
       </c>
     </row>
@@ -5546,11 +5555,11 @@
         <v>142</v>
       </c>
       <c r="C158" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A158,", ",B158,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, for a number of days, for days, All</v>
       </c>
       <c r="D158" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A158,1))&amp;RIGHT(A158,LEN(A158)-1),", ",UPPER(LEFT(B158,1))&amp;RIGHT(B158,LEN(B158)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, For a number of days, For days, All</v>
       </c>
     </row>
@@ -5562,11 +5571,11 @@
         <v>142</v>
       </c>
       <c r="C159" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A159,", ",B159,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, for a period of days, for days, All</v>
       </c>
       <c r="D159" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A159,1))&amp;RIGHT(A159,LEN(A159)-1),", ",UPPER(LEFT(B159,1))&amp;RIGHT(B159,LEN(B159)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, For a period of days, For days, All</v>
       </c>
     </row>
@@ -5578,11 +5587,11 @@
         <v>404</v>
       </c>
       <c r="C160" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A160,", ",B160,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, first and foremost, foremost, All</v>
       </c>
       <c r="D160" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A160,1))&amp;RIGHT(A160,LEN(A160)-1),", ",UPPER(LEFT(B160,1))&amp;RIGHT(B160,LEN(B160)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, First and foremost, Foremost, All</v>
       </c>
     </row>
@@ -5594,11 +5603,11 @@
         <v>595</v>
       </c>
       <c r="C161" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A161,", ",B161,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, personal friend, friend, All</v>
       </c>
       <c r="D161" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A161,1))&amp;RIGHT(A161,LEN(A161)-1),", ",UPPER(LEFT(B161,1))&amp;RIGHT(B161,LEN(B161)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Personal friend, Friend, All</v>
       </c>
     </row>
@@ -5610,11 +5619,11 @@
         <v>424</v>
       </c>
       <c r="C162" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A162,", ",B162,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, full to capacity, full , All</v>
       </c>
       <c r="D162" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A162,1))&amp;RIGHT(A162,LEN(A162)-1),", ",UPPER(LEFT(B162,1))&amp;RIGHT(B162,LEN(B162)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Full to capacity, Full , All</v>
       </c>
     </row>
@@ -5626,11 +5635,11 @@
         <v>86</v>
       </c>
       <c r="C163" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A163,", ",B163,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, basic fundamentals, fundamentals, All</v>
       </c>
       <c r="D163" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A163,1))&amp;RIGHT(A163,LEN(A163)-1),", ",UPPER(LEFT(B163,1))&amp;RIGHT(B163,LEN(B163)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Basic fundamentals, Fundamentals, All</v>
       </c>
     </row>
@@ -5642,11 +5651,11 @@
         <v>86</v>
       </c>
       <c r="C164" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A164,", ",B164,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, basic fundamental, fundamentals, All</v>
       </c>
       <c r="D164" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A164,1))&amp;RIGHT(A164,LEN(A164)-1),", ",UPPER(LEFT(B164,1))&amp;RIGHT(B164,LEN(B164)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Basic fundamental, Fundamentals, All</v>
       </c>
     </row>
@@ -5658,11 +5667,11 @@
         <v>427</v>
       </c>
       <c r="C165" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A165,", ",B165,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, fuse together, fuse , All</v>
       </c>
       <c r="D165" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A165,1))&amp;RIGHT(A165,LEN(A165)-1),", ",UPPER(LEFT(B165,1))&amp;RIGHT(B165,LEN(B165)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Fuse together, Fuse , All</v>
       </c>
     </row>
@@ -5674,11 +5683,11 @@
         <v>431</v>
       </c>
       <c r="C166" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A166,", ",B166,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, gather together, gather , All</v>
       </c>
       <c r="D166" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A166,1))&amp;RIGHT(A166,LEN(A166)-1),", ",UPPER(LEFT(B166,1))&amp;RIGHT(B166,LEN(B166)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Gather together, Gather , All</v>
       </c>
     </row>
@@ -5690,11 +5699,11 @@
         <v>4</v>
       </c>
       <c r="C167" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A167,", ",B167,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, free gift, gift, All</v>
       </c>
       <c r="D167" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A167,1))&amp;RIGHT(A167,LEN(A167)-1),", ",UPPER(LEFT(B167,1))&amp;RIGHT(B167,LEN(B167)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Free gift, Gift, All</v>
       </c>
     </row>
@@ -5706,11 +5715,11 @@
         <v>740</v>
       </c>
       <c r="C168" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A168,", ",B168,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, ultimate goal, goal, All</v>
       </c>
       <c r="D168" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A168,1))&amp;RIGHT(A168,LEN(A168)-1),", ",UPPER(LEFT(B168,1))&amp;RIGHT(B168,LEN(B168)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Ultimate goal, Goal, All</v>
       </c>
     </row>
@@ -5722,11 +5731,11 @@
         <v>799</v>
       </c>
       <c r="C169" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A169,", ",B169,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, gold in color, gold, All</v>
       </c>
       <c r="D169" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A169,1))&amp;RIGHT(A169,LEN(A169)-1),", ",UPPER(LEFT(B169,1))&amp;RIGHT(B169,LEN(B169)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Gold in color, Gold, All</v>
       </c>
     </row>
@@ -5738,11 +5747,11 @@
         <v>434</v>
       </c>
       <c r="C170" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A170,", ",B170,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, GOP party, GOP , All</v>
       </c>
       <c r="D170" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A170,1))&amp;RIGHT(A170,LEN(A170)-1),", ",UPPER(LEFT(B170,1))&amp;RIGHT(B170,LEN(B170)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, GOP party, GOP , All</v>
       </c>
     </row>
@@ -5754,11 +5763,11 @@
         <v>414</v>
       </c>
       <c r="C171" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A171,", ",B171,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, former graduate, graduate, All</v>
       </c>
       <c r="D171" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A171,1))&amp;RIGHT(A171,LEN(A171)-1),", ",UPPER(LEFT(B171,1))&amp;RIGHT(B171,LEN(B171)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Former graduate, Graduate, All</v>
       </c>
     </row>
@@ -5770,11 +5779,11 @@
         <v>795</v>
       </c>
       <c r="C172" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A172,", ",B172,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, gray in color, gray, All</v>
       </c>
       <c r="D172" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A172,1))&amp;RIGHT(A172,LEN(A172)-1),", ",UPPER(LEFT(B172,1))&amp;RIGHT(B172,LEN(B172)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Gray in color, Gray, All</v>
       </c>
     </row>
@@ -5786,11 +5795,11 @@
         <v>436</v>
       </c>
       <c r="C173" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A173,", ",B173,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, GRE exam, GRE , All</v>
       </c>
       <c r="D173" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A173,1))&amp;RIGHT(A173,LEN(A173)-1),", ",UPPER(LEFT(B173,1))&amp;RIGHT(B173,LEN(B173)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, GRE exam, GRE , All</v>
       </c>
     </row>
@@ -5802,11 +5811,11 @@
         <v>438</v>
       </c>
       <c r="C174" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A174,", ",B174,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, green in color, green, All</v>
       </c>
       <c r="D174" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A174,1))&amp;RIGHT(A174,LEN(A174)-1),", ",UPPER(LEFT(B174,1))&amp;RIGHT(B174,LEN(B174)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Green in color, Green, All</v>
       </c>
     </row>
@@ -5818,11 +5827,11 @@
         <v>801</v>
       </c>
       <c r="C175" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A175,", ",B175,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, grey in color, grey, All</v>
       </c>
       <c r="D175" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A175,1))&amp;RIGHT(A175,LEN(A175)-1),", ",UPPER(LEFT(B175,1))&amp;RIGHT(B175,LEN(B175)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Grey in color, Grey, All</v>
       </c>
     </row>
@@ -5834,11 +5843,11 @@
         <v>440</v>
       </c>
       <c r="C176" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A176,", ",B176,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, grow in size, grow , All</v>
       </c>
       <c r="D176" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A176,1))&amp;RIGHT(A176,LEN(A176)-1),", ",UPPER(LEFT(B176,1))&amp;RIGHT(B176,LEN(B176)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Grow in size, Grow , All</v>
       </c>
     </row>
@@ -5850,11 +5859,11 @@
         <v>151</v>
       </c>
       <c r="C177" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A177,", ",B177,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, absolutely guarantee, guarantee, All</v>
       </c>
       <c r="D177" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A177,1))&amp;RIGHT(A177,LEN(A177)-1),", ",UPPER(LEFT(B177,1))&amp;RIGHT(B177,LEN(B177)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Absolutely guarantee, Guarantee, All</v>
       </c>
     </row>
@@ -5866,11 +5875,11 @@
         <v>145</v>
       </c>
       <c r="C178" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A178,", ",B178,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, invited guest, guest, All</v>
       </c>
       <c r="D178" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A178,1))&amp;RIGHT(A178,LEN(A178)-1),", ",UPPER(LEFT(B178,1))&amp;RIGHT(B178,LEN(B178)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Invited guest, Guest, All</v>
       </c>
     </row>
@@ -5882,11 +5891,11 @@
         <v>238</v>
       </c>
       <c r="C179" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A179,", ",B179,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, armed gunm, gunm, All</v>
       </c>
       <c r="D179" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A179,1))&amp;RIGHT(A179,LEN(A179)-1),", ",UPPER(LEFT(B179,1))&amp;RIGHT(B179,LEN(B179)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Armed gunm, Gunm, All</v>
       </c>
     </row>
@@ -5898,11 +5907,11 @@
         <v>537</v>
       </c>
       <c r="C180" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A180,", ",B180,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, native habitat, habitat, All</v>
       </c>
       <c r="D180" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A180,1))&amp;RIGHT(A180,LEN(A180)-1),", ",UPPER(LEFT(B180,1))&amp;RIGHT(B180,LEN(B180)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Native habitat, Habitat, All</v>
       </c>
     </row>
@@ -5914,11 +5923,11 @@
         <v>442</v>
       </c>
       <c r="C181" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A181,", ",B181,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, had done previously, had done , All</v>
       </c>
       <c r="D181" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A181,1))&amp;RIGHT(A181,LEN(A181)-1),", ",UPPER(LEFT(B181,1))&amp;RIGHT(B181,LEN(B181)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Had done previously, Had done , All</v>
       </c>
     </row>
@@ -5930,11 +5939,11 @@
         <v>736</v>
       </c>
       <c r="C182" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A182,", ",B182,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, two equal halves, halves, All</v>
       </c>
       <c r="D182" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A182,1))&amp;RIGHT(A182,LEN(A182)-1),", ",UPPER(LEFT(B182,1))&amp;RIGHT(B182,LEN(B182)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Two equal halves, Halves, All</v>
       </c>
     </row>
@@ -5946,11 +5955,11 @@
         <v>39</v>
       </c>
       <c r="C183" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A183,", ",B183,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, do harm to, harm, All</v>
       </c>
       <c r="D183" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A183,1))&amp;RIGHT(A183,LEN(A183)-1),", ",UPPER(LEFT(B183,1))&amp;RIGHT(B183,LEN(B183)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Do harm to, Harm, All</v>
       </c>
     </row>
@@ -5962,11 +5971,11 @@
         <v>663</v>
       </c>
       <c r="C184" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A184,", ",B184,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, safe haven, haven, All</v>
       </c>
       <c r="D184" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A184,1))&amp;RIGHT(A184,LEN(A184)-1),", ",UPPER(LEFT(B184,1))&amp;RIGHT(B184,LEN(B184)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Safe haven, Haven, All</v>
       </c>
     </row>
@@ -5978,11 +5987,11 @@
         <v>619</v>
       </c>
       <c r="C185" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A185,", ",B185,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, preheat, heat, All</v>
       </c>
       <c r="D185" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A185,1))&amp;RIGHT(A185,LEN(A185)-1),", ",UPPER(LEFT(B185,1))&amp;RIGHT(B185,LEN(B185)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Preheat, Heat, All</v>
       </c>
     </row>
@@ -5994,11 +6003,11 @@
         <v>448</v>
       </c>
       <c r="C186" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A186,", ",B186,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, heat up, heat , All</v>
       </c>
       <c r="D186" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A186,1))&amp;RIGHT(A186,LEN(A186)-1),", ",UPPER(LEFT(B186,1))&amp;RIGHT(B186,LEN(B186)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Heat up, Heat , All</v>
       </c>
     </row>
@@ -6010,11 +6019,11 @@
         <v>166</v>
       </c>
       <c r="C187" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A187,", ",B187,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, past history, history, All</v>
       </c>
       <c r="D187" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A187,1))&amp;RIGHT(A187,LEN(A187)-1),", ",UPPER(LEFT(B187,1))&amp;RIGHT(B187,LEN(B187)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Past history, History, All</v>
       </c>
     </row>
@@ -6026,11 +6035,11 @@
         <v>450</v>
       </c>
       <c r="C188" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A188,", ",B188,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, HIV virus, HIV , All</v>
       </c>
       <c r="D188" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A188,1))&amp;RIGHT(A188,LEN(A188)-1),", ",UPPER(LEFT(B188,1))&amp;RIGHT(B188,LEN(B188)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, HIV virus, HIV , All</v>
       </c>
     </row>
@@ -6042,11 +6051,11 @@
         <v>452</v>
       </c>
       <c r="C189" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A189,", ",B189,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, hoist up, hoist , All</v>
       </c>
       <c r="D189" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A189,1))&amp;RIGHT(A189,LEN(A189)-1),", ",UPPER(LEFT(B189,1))&amp;RIGHT(B189,LEN(B189)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Hoist up, Hoist , All</v>
       </c>
     </row>
@@ -6058,11 +6067,11 @@
         <v>375</v>
       </c>
       <c r="C190" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A190,", ",B190,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, empty hole, hole, All</v>
       </c>
       <c r="D190" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A190,1))&amp;RIGHT(A190,LEN(A190)-1),", ",UPPER(LEFT(B190,1))&amp;RIGHT(B190,LEN(B190)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Empty hole, Hole, All</v>
       </c>
     </row>
@@ -6074,11 +6083,11 @@
         <v>446</v>
       </c>
       <c r="C191" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A191,", ",B191,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, head honcho, honcho, All</v>
       </c>
       <c r="D191" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A191,1))&amp;RIGHT(A191,LEN(A191)-1),", ",UPPER(LEFT(B191,1))&amp;RIGHT(B191,LEN(B191)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Head honcho, Honcho, All</v>
       </c>
     </row>
@@ -6090,11 +6099,11 @@
         <v>456</v>
       </c>
       <c r="C192" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A192,", ",B192,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, hurry up, hurry , All</v>
       </c>
       <c r="D192" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A192,1))&amp;RIGHT(A192,LEN(A192)-1),", ",UPPER(LEFT(B192,1))&amp;RIGHT(B192,LEN(B192)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Hurry up, Hurry , All</v>
       </c>
     </row>
@@ -6106,11 +6115,11 @@
         <v>420</v>
       </c>
       <c r="C193" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A193,", ",B193,", All")</f>
+        <f t="shared" si="4"/>
         <v>stringReplace, contents, contents, frozen ice, ice, All</v>
       </c>
       <c r="D193" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A193,1))&amp;RIGHT(A193,LEN(A193)-1),", ",UPPER(LEFT(B193,1))&amp;RIGHT(B193,LEN(B193)-1),", All")</f>
+        <f t="shared" si="5"/>
         <v>stringReplace, contents, contents, Frozen ice, Ice, All</v>
       </c>
     </row>
@@ -6122,11 +6131,11 @@
         <v>183</v>
       </c>
       <c r="C194" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A194,", ",B194,", All")</f>
+        <f t="shared" ref="C194:C257" si="6">CONCATENATE("stringReplace, contents, contents, ",A194,", ",B194,", All")</f>
         <v>stringReplace, contents, contents, same identical, identical, All</v>
       </c>
       <c r="D194" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A194,1))&amp;RIGHT(A194,LEN(A194)-1),", ",UPPER(LEFT(B194,1))&amp;RIGHT(B194,LEN(B194)-1),", All")</f>
+        <f t="shared" ref="D194:D257" si="7">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A194,1))&amp;RIGHT(A194,LEN(A194)-1),", ",UPPER(LEFT(B194,1))&amp;RIGHT(B194,LEN(B194)-1),", All")</f>
         <v>stringReplace, contents, contents, Same identical, Identical, All</v>
       </c>
     </row>
@@ -6138,11 +6147,11 @@
         <v>612</v>
       </c>
       <c r="C195" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A195,", ",B195,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, positive identification, identification, All</v>
       </c>
       <c r="D195" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A195,1))&amp;RIGHT(A195,LEN(A195)-1),", ",UPPER(LEFT(B195,1))&amp;RIGHT(B195,LEN(B195)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Positive identification, Identification, All</v>
       </c>
     </row>
@@ -6154,11 +6163,11 @@
         <v>147</v>
       </c>
       <c r="C196" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A196,", ",B196,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, foreign import, import, All</v>
       </c>
       <c r="D196" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A196,1))&amp;RIGHT(A196,LEN(A196)-1),", ",UPPER(LEFT(B196,1))&amp;RIGHT(B196,LEN(B196)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Foreign import, Import, All</v>
       </c>
     </row>
@@ -6170,11 +6179,11 @@
         <v>707</v>
       </c>
       <c r="C197" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A197,", ",B197,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, sudden impulse, impulse, All</v>
       </c>
       <c r="D197" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A197,1))&amp;RIGHT(A197,LEN(A197)-1),", ",UPPER(LEFT(B197,1))&amp;RIGHT(B197,LEN(B197)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Sudden impulse, Impulse, All</v>
       </c>
     </row>
@@ -6186,11 +6195,11 @@
         <v>576</v>
       </c>
       <c r="C198" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A198,", ",B198,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, outside in the yard, in the yard, All</v>
       </c>
       <c r="D198" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A198,1))&amp;RIGHT(A198,LEN(A198)-1),", ",UPPER(LEFT(B198,1))&amp;RIGHT(B198,LEN(B198)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Outside in the yard, In the yard, All</v>
       </c>
     </row>
@@ -6202,11 +6211,11 @@
         <v>460</v>
       </c>
       <c r="C199" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A199,", ",B199,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, incredible to believe, incredible , All</v>
       </c>
       <c r="D199" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A199,1))&amp;RIGHT(A199,LEN(A199)-1),", ",UPPER(LEFT(B199,1))&amp;RIGHT(B199,LEN(B199)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Incredible to believe, Incredible , All</v>
       </c>
     </row>
@@ -6218,11 +6227,11 @@
         <v>339</v>
       </c>
       <c r="C200" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A200,", ",B200,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, current incumbent, incumbent, All</v>
       </c>
       <c r="D200" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A200,1))&amp;RIGHT(A200,LEN(A200)-1),", ",UPPER(LEFT(B200,1))&amp;RIGHT(B200,LEN(B200)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Current incumbent, Incumbent, All</v>
       </c>
     </row>
@@ -6234,11 +6243,11 @@
         <v>339</v>
       </c>
       <c r="C201" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A201,", ",B201,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, present incumbent, incumbent, All</v>
       </c>
       <c r="D201" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A201,1))&amp;RIGHT(A201,LEN(A201)-1),", ",UPPER(LEFT(B201,1))&amp;RIGHT(B201,LEN(B201)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Present incumbent, Incumbent, All</v>
       </c>
     </row>
@@ -6250,11 +6259,11 @@
         <v>462</v>
       </c>
       <c r="C202" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A202,", ",B202,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, indicted on a charge, indicted , All</v>
       </c>
       <c r="D202" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A202,1))&amp;RIGHT(A202,LEN(A202)-1),", ",UPPER(LEFT(B202,1))&amp;RIGHT(B202,LEN(B202)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Indicted on a charge, Indicted , All</v>
       </c>
     </row>
@@ -6266,11 +6275,11 @@
         <v>622</v>
       </c>
       <c r="C203" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A203,", ",B203,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, private industry, industry, All</v>
       </c>
       <c r="D203" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A203,1))&amp;RIGHT(A203,LEN(A203)-1),", ",UPPER(LEFT(B203,1))&amp;RIGHT(B203,LEN(B203)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Private industry, Industry, All</v>
       </c>
     </row>
@@ -6282,11 +6291,11 @@
         <v>444</v>
       </c>
       <c r="C204" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A204,", ",B204,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, harmful injuries, injuries, All</v>
       </c>
       <c r="D204" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A204,1))&amp;RIGHT(A204,LEN(A204)-1),", ",UPPER(LEFT(B204,1))&amp;RIGHT(B204,LEN(B204)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Harmful injuries, Injuries, All</v>
       </c>
     </row>
@@ -6298,11 +6307,11 @@
         <v>547</v>
       </c>
       <c r="C205" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A205,", ",B205,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, new innovation, innovation, All</v>
       </c>
       <c r="D205" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A205,1))&amp;RIGHT(A205,LEN(A205)-1),", ",UPPER(LEFT(B205,1))&amp;RIGHT(B205,LEN(B205)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, New innovation, Innovation, All</v>
       </c>
     </row>
@@ -6314,11 +6323,11 @@
         <v>464</v>
       </c>
       <c r="C206" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A206,", ",B206,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, input into, input , All</v>
       </c>
       <c r="D206" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A206,1))&amp;RIGHT(A206,LEN(A206)-1),", ",UPPER(LEFT(B206,1))&amp;RIGHT(B206,LEN(B206)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Input into, Input , All</v>
       </c>
     </row>
@@ -6330,11 +6339,11 @@
         <v>539</v>
       </c>
       <c r="C207" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A207,", ",B207,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, natural instinct, instinct, All</v>
       </c>
       <c r="D207" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A207,1))&amp;RIGHT(A207,LEN(A207)-1),", ",UPPER(LEFT(B207,1))&amp;RIGHT(B207,LEN(B207)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Natural instinct, Instinct, All</v>
       </c>
     </row>
@@ -6346,11 +6355,11 @@
         <v>466</v>
       </c>
       <c r="C208" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A208,", ",B208,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, integrate together, integrate , All</v>
       </c>
       <c r="D208" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A208,1))&amp;RIGHT(A208,LEN(A208)-1),", ",UPPER(LEFT(B208,1))&amp;RIGHT(B208,LEN(B208)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Integrate together, Integrate , All</v>
       </c>
     </row>
@@ -6362,11 +6371,11 @@
         <v>466</v>
       </c>
       <c r="C209" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A209,", ",B209,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, integrate with each other, integrate , All</v>
       </c>
       <c r="D209" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A209,1))&amp;RIGHT(A209,LEN(A209)-1),", ",UPPER(LEFT(B209,1))&amp;RIGHT(B209,LEN(B209)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Integrate with each other, Integrate , All</v>
       </c>
     </row>
@@ -6378,11 +6387,11 @@
         <v>528</v>
       </c>
       <c r="C210" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A210,", ",B210,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, mutually interdependent, interdependent, All</v>
       </c>
       <c r="D210" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A210,1))&amp;RIGHT(A210,LEN(A210)-1),", ",UPPER(LEFT(B210,1))&amp;RIGHT(B210,LEN(B210)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Mutually interdependent, Interdependent, All</v>
       </c>
     </row>
@@ -6394,11 +6403,11 @@
         <v>469</v>
       </c>
       <c r="C211" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A211,", ",B211,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, interdependent on each other, interdependent , All</v>
       </c>
       <c r="D211" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A211,1))&amp;RIGHT(A211,LEN(A211)-1),", ",UPPER(LEFT(B211,1))&amp;RIGHT(B211,LEN(B211)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Interdependent on each other, Interdependent , All</v>
       </c>
     </row>
@@ -6410,11 +6419,11 @@
         <v>471</v>
       </c>
       <c r="C212" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A212,", ",B212,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, introduced a new, introduced , All</v>
       </c>
       <c r="D212" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A212,1))&amp;RIGHT(A212,LEN(A212)-1),", ",UPPER(LEFT(B212,1))&amp;RIGHT(B212,LEN(B212)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Introduced a new, Introduced , All</v>
       </c>
     </row>
@@ -6426,11 +6435,11 @@
         <v>471</v>
       </c>
       <c r="C213" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A213,", ",B213,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, introduced for the first time, introduced , All</v>
       </c>
       <c r="D213" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A213,1))&amp;RIGHT(A213,LEN(A213)-1),", ",UPPER(LEFT(B213,1))&amp;RIGHT(B213,LEN(B213)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Introduced for the first time, Introduced , All</v>
       </c>
     </row>
@@ -6442,11 +6451,11 @@
         <v>549</v>
       </c>
       <c r="C214" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A214,", ",B214,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, new invention, invention, All</v>
       </c>
       <c r="D214" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A214,1))&amp;RIGHT(A214,LEN(A214)-1),", ",UPPER(LEFT(B214,1))&amp;RIGHT(B214,LEN(B214)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, New invention, Invention, All</v>
       </c>
     </row>
@@ -6458,11 +6467,11 @@
         <v>476</v>
       </c>
       <c r="C215" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A215,", ",B215,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, ISBN number, ISBN , All</v>
       </c>
       <c r="D215" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A215,1))&amp;RIGHT(A215,LEN(A215)-1),", ",UPPER(LEFT(B215,1))&amp;RIGHT(B215,LEN(B215)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, ISBN number, ISBN , All</v>
       </c>
     </row>
@@ -6474,11 +6483,11 @@
         <v>97</v>
       </c>
       <c r="C216" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A216,", ",B216,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, join together, join, All</v>
       </c>
       <c r="D216" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A216,1))&amp;RIGHT(A216,LEN(A216)-1),", ",UPPER(LEFT(B216,1))&amp;RIGHT(B216,LEN(B216)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Join together, Join, All</v>
       </c>
     </row>
@@ -6490,11 +6499,11 @@
         <v>477</v>
       </c>
       <c r="C217" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A217,", ",B217,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, join together, join , All</v>
       </c>
       <c r="D217" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A217,1))&amp;RIGHT(A217,LEN(A217)-1),", ",UPPER(LEFT(B217,1))&amp;RIGHT(B217,LEN(B217)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Join together, Join , All</v>
       </c>
     </row>
@@ -6506,11 +6515,11 @@
         <v>803</v>
       </c>
       <c r="C218" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A218,", ",B218,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, khaki in color, khaki, All</v>
       </c>
       <c r="D218" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A218,1))&amp;RIGHT(A218,LEN(A218)-1),", ",UPPER(LEFT(B218,1))&amp;RIGHT(B218,LEN(B218)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Khaki in color, Khaki, All</v>
       </c>
     </row>
@@ -6522,11 +6531,11 @@
         <v>350</v>
       </c>
       <c r="C219" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A219,", ",B219,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, different kind, kind, All</v>
       </c>
       <c r="D219" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A219,1))&amp;RIGHT(A219,LEN(A219)-1),", ",UPPER(LEFT(B219,1))&amp;RIGHT(B219,LEN(B219)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Different kind, Kind, All</v>
       </c>
     </row>
@@ -6538,11 +6547,11 @@
         <v>481</v>
       </c>
       <c r="C220" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A220,", ",B220,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, kneel down, kneel , All</v>
       </c>
       <c r="D220" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A220,1))&amp;RIGHT(A220,LEN(A220)-1),", ",UPPER(LEFT(B220,1))&amp;RIGHT(B220,LEN(B220)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Kneel down, Kneel , All</v>
       </c>
     </row>
@@ -6554,11 +6563,11 @@
         <v>485</v>
       </c>
       <c r="C221" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A221,", ",B221,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, lag behind, lag , All</v>
       </c>
       <c r="D221" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A221,1))&amp;RIGHT(A221,LEN(A221)-1),", ",UPPER(LEFT(B221,1))&amp;RIGHT(B221,LEN(B221)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Lag behind, Lag , All</v>
       </c>
     </row>
@@ -6570,11 +6579,11 @@
         <v>20</v>
       </c>
       <c r="C222" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A222,", ",B222,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, as of late, lately, All</v>
       </c>
       <c r="D222" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A222,1))&amp;RIGHT(A222,LEN(A222)-1),", ",UPPER(LEFT(B222,1))&amp;RIGHT(B222,LEN(B222)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, As of late, Lately, All</v>
       </c>
     </row>
@@ -6586,11 +6595,11 @@
         <v>157</v>
       </c>
       <c r="C223" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A223,", ",B223,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, of late , lately , All</v>
       </c>
       <c r="D223" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A223,1))&amp;RIGHT(A223,LEN(A223)-1),", ",UPPER(LEFT(B223,1))&amp;RIGHT(B223,LEN(B223)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Of late , Lately , All</v>
       </c>
     </row>
@@ -6602,11 +6611,11 @@
         <v>487</v>
       </c>
       <c r="C224" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A224,", ",B224,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, later time, later , All</v>
       </c>
       <c r="D224" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A224,1))&amp;RIGHT(A224,LEN(A224)-1),", ",UPPER(LEFT(B224,1))&amp;RIGHT(B224,LEN(B224)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Later time, Later , All</v>
       </c>
     </row>
@@ -6618,11 +6627,11 @@
         <v>489</v>
       </c>
       <c r="C225" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A225,", ",B225,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, LCD display, LCD , All</v>
       </c>
       <c r="D225" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A225,1))&amp;RIGHT(A225,LEN(A225)-1),", ",UPPER(LEFT(B225,1))&amp;RIGHT(B225,LEN(B225)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, LCD display, LCD , All</v>
       </c>
     </row>
@@ -6634,11 +6643,11 @@
         <v>532</v>
       </c>
       <c r="C226" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A226,", ",B226,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, number-one leader in , leader in , All</v>
       </c>
       <c r="D226" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A226,1))&amp;RIGHT(A226,LEN(A226)-1),", ",UPPER(LEFT(B226,1))&amp;RIGHT(B226,LEN(B226)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Number-one leader in , Leader in , All</v>
       </c>
     </row>
@@ -6650,11 +6659,11 @@
         <v>491</v>
       </c>
       <c r="C227" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A227,", ",B227,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, lift up, lift , All</v>
       </c>
       <c r="D227" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A227,1))&amp;RIGHT(A227,LEN(A227)-1),", ",UPPER(LEFT(B227,1))&amp;RIGHT(B227,LEN(B227)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Lift up, Lift , All</v>
       </c>
     </row>
@@ -6666,11 +6675,11 @@
         <v>503</v>
       </c>
       <c r="C228" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A228,", ",B228,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, look back in retrospect, look back , All</v>
       </c>
       <c r="D228" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A228,1))&amp;RIGHT(A228,LEN(A228)-1),", ",UPPER(LEFT(B228,1))&amp;RIGHT(B228,LEN(B228)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Look back in retrospect, Look back , All</v>
       </c>
     </row>
@@ -6682,11 +6691,11 @@
         <v>501</v>
       </c>
       <c r="C229" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A229,", ",B229,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, look ahead to the future, look to the future, All</v>
       </c>
       <c r="D229" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A229,1))&amp;RIGHT(A229,LEN(A229)-1),", ",UPPER(LEFT(B229,1))&amp;RIGHT(B229,LEN(B229)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Look ahead to the future, Look to the future, All</v>
       </c>
     </row>
@@ -6698,11 +6707,11 @@
         <v>721</v>
       </c>
       <c r="C230" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A230,", ",B230,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, three-way love triangle, love triangle, All</v>
       </c>
       <c r="D230" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A230,1))&amp;RIGHT(A230,LEN(A230)-1),", ",UPPER(LEFT(B230,1))&amp;RIGHT(B230,LEN(B230)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Three-way love triangle, Love triangle, All</v>
       </c>
     </row>
@@ -6714,11 +6723,11 @@
         <v>505</v>
       </c>
       <c r="C231" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A231,", ",B231,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, made out of, made of, All</v>
       </c>
       <c r="D231" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A231,1))&amp;RIGHT(A231,LEN(A231)-1),", ",UPPER(LEFT(B231,1))&amp;RIGHT(B231,LEN(B231)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Made out of, Made of, All</v>
       </c>
     </row>
@@ -6730,11 +6739,11 @@
         <v>781</v>
       </c>
       <c r="C232" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A232,", ",B232,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, magenta in color, magenta, All</v>
       </c>
       <c r="D232" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A232,1))&amp;RIGHT(A232,LEN(A232)-1),", ",UPPER(LEFT(B232,1))&amp;RIGHT(B232,LEN(B232)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Magenta in color, Magenta, All</v>
       </c>
     </row>
@@ -6746,11 +6755,11 @@
         <v>329</v>
       </c>
       <c r="C233" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A233,", ",B233,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, constantly maintain, maintain, All</v>
       </c>
       <c r="D233" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A233,1))&amp;RIGHT(A233,LEN(A233)-1),", ",UPPER(LEFT(B233,1))&amp;RIGHT(B233,LEN(B233)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Constantly maintain, Maintain, All</v>
       </c>
     </row>
@@ -6762,11 +6771,11 @@
         <v>511</v>
       </c>
       <c r="C234" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A234,", ",B234,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, manually by hand, manually , All</v>
       </c>
       <c r="D234" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A234,1))&amp;RIGHT(A234,LEN(A234)-1),", ",UPPER(LEFT(B234,1))&amp;RIGHT(B234,LEN(B234)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Manually by hand, Manually , All</v>
       </c>
     </row>
@@ -6778,11 +6787,11 @@
         <v>267</v>
       </c>
       <c r="C235" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A235,", ",B235,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, boat marina, marina, All</v>
       </c>
       <c r="D235" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A235,1))&amp;RIGHT(A235,LEN(A235)-1),", ",UPPER(LEFT(B235,1))&amp;RIGHT(B235,LEN(B235)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Boat marina, Marina, All</v>
       </c>
     </row>
@@ -6794,11 +6803,11 @@
         <v>805</v>
       </c>
       <c r="C236" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A236,", ",B236,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, maroon in color, maroon, All</v>
       </c>
       <c r="D236" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A236,1))&amp;RIGHT(A236,LEN(A236)-1),", ",UPPER(LEFT(B236,1))&amp;RIGHT(B236,LEN(B236)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Maroon in color, Maroon, All</v>
       </c>
     </row>
@@ -6810,11 +6819,11 @@
         <v>389</v>
       </c>
       <c r="C237" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A237,", ",B237,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, face mask, mask, All</v>
       </c>
       <c r="D237" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A237,1))&amp;RIGHT(A237,LEN(A237)-1),", ",UPPER(LEFT(B237,1))&amp;RIGHT(B237,LEN(B237)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Face mask, Mask, All</v>
       </c>
     </row>
@@ -6826,11 +6835,11 @@
         <v>513</v>
       </c>
       <c r="C238" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A238,", ",B238,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, may possibly, may , All</v>
       </c>
       <c r="D238" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A238,1))&amp;RIGHT(A238,LEN(A238)-1),", ",UPPER(LEFT(B238,1))&amp;RIGHT(B238,LEN(B238)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, May possibly, May , All</v>
       </c>
     </row>
@@ -6842,11 +6851,11 @@
         <v>99</v>
       </c>
       <c r="C239" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A239,", ",B239,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, meet together, meet, All</v>
       </c>
       <c r="D239" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A239,1))&amp;RIGHT(A239,LEN(A239)-1),", ",UPPER(LEFT(B239,1))&amp;RIGHT(B239,LEN(B239)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Meet together, Meet, All</v>
       </c>
     </row>
@@ -6858,11 +6867,11 @@
         <v>514</v>
       </c>
       <c r="C240" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A240,", ",B240,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, meet together, meet , All</v>
       </c>
       <c r="D240" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A240,1))&amp;RIGHT(A240,LEN(A240)-1),", ",UPPER(LEFT(B240,1))&amp;RIGHT(B240,LEN(B240)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Meet together, Meet , All</v>
       </c>
     </row>
@@ -6874,11 +6883,11 @@
         <v>514</v>
       </c>
       <c r="C241" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A241,", ",B241,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, meet with each other, meet , All</v>
       </c>
       <c r="D241" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A241,1))&amp;RIGHT(A241,LEN(A241)-1),", ",UPPER(LEFT(B241,1))&amp;RIGHT(B241,LEN(B241)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Meet with each other, Meet , All</v>
       </c>
     </row>
@@ -6890,11 +6899,11 @@
         <v>589</v>
       </c>
       <c r="C242" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A242,", ",B242,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, past memor, memor, All</v>
       </c>
       <c r="D242" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A242,1))&amp;RIGHT(A242,LEN(A242)-1),", ",UPPER(LEFT(B242,1))&amp;RIGHT(B242,LEN(B242)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Past memor, Memor, All</v>
       </c>
     </row>
@@ -6906,11 +6915,11 @@
         <v>101</v>
       </c>
       <c r="C243" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A243,", ",B243,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, merge together, merge, All</v>
       </c>
       <c r="D243" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A243,1))&amp;RIGHT(A243,LEN(A243)-1),", ",UPPER(LEFT(B243,1))&amp;RIGHT(B243,LEN(B243)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Merge together, Merge, All</v>
       </c>
     </row>
@@ -6922,11 +6931,11 @@
         <v>518</v>
       </c>
       <c r="C244" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A244,", ",B244,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, merge together, merge , All</v>
       </c>
       <c r="D244" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A244,1))&amp;RIGHT(A244,LEN(A244)-1),", ",UPPER(LEFT(B244,1))&amp;RIGHT(B244,LEN(B244)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Merge together, Merge , All</v>
       </c>
     </row>
@@ -6938,11 +6947,11 @@
         <v>738</v>
       </c>
       <c r="C245" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A245,", ",B245,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, twelve midnight, midnight, All</v>
       </c>
       <c r="D245" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A245,1))&amp;RIGHT(A245,LEN(A245)-1),", ",UPPER(LEFT(B245,1))&amp;RIGHT(B245,LEN(B245)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Twelve midnight, Midnight, All</v>
       </c>
     </row>
@@ -6954,11 +6963,11 @@
         <v>171</v>
       </c>
       <c r="C246" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A246,", ",B246,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, possibly might, might, All</v>
       </c>
       <c r="D246" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A246,1))&amp;RIGHT(A246,LEN(A246)-1),", ",UPPER(LEFT(B246,1))&amp;RIGHT(B246,LEN(B246)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Possibly might, Might, All</v>
       </c>
     </row>
@@ -6970,11 +6979,11 @@
         <v>520</v>
       </c>
       <c r="C247" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A247,", ",B247,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, might possibly, might , All</v>
       </c>
       <c r="D247" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A247,1))&amp;RIGHT(A247,LEN(A247)-1),", ",UPPER(LEFT(B247,1))&amp;RIGHT(B247,LEN(B247)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Might possibly, Might , All</v>
       </c>
     </row>
@@ -6986,11 +6995,11 @@
         <v>522</v>
       </c>
       <c r="C248" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A248,", ",B248,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, minestrone soup, minestrone , All</v>
       </c>
       <c r="D248" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A248,1))&amp;RIGHT(A248,LEN(A248)-1),", ",UPPER(LEFT(B248,1))&amp;RIGHT(B248,LEN(B248)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Minestrone soup, Minestrone , All</v>
       </c>
     </row>
@@ -7002,11 +7011,11 @@
         <v>197</v>
       </c>
       <c r="C249" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A249,", ",B249,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, unintended mistake, mistake, All</v>
       </c>
       <c r="D249" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A249,1))&amp;RIGHT(A249,LEN(A249)-1),", ",UPPER(LEFT(B249,1))&amp;RIGHT(B249,LEN(B249)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Unintended mistake, Mistake, All</v>
       </c>
     </row>
@@ -7018,11 +7027,11 @@
         <v>197</v>
       </c>
       <c r="C250" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A250,", ",B250,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, unintentional mistake, mistake, All</v>
       </c>
       <c r="D250" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A250,1))&amp;RIGHT(A250,LEN(A250)-1),", ",UPPER(LEFT(B250,1))&amp;RIGHT(B250,LEN(B250)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Unintentional mistake, Mistake, All</v>
       </c>
     </row>
@@ -7034,11 +7043,11 @@
         <v>524</v>
       </c>
       <c r="C251" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A251,", ",B251,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, mix together, mix , All</v>
       </c>
       <c r="D251" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A251,1))&amp;RIGHT(A251,LEN(A251)-1),", ",UPPER(LEFT(B251,1))&amp;RIGHT(B251,LEN(B251)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Mix together, Mix , All</v>
       </c>
     </row>
@@ -7050,11 +7059,11 @@
         <v>273</v>
       </c>
       <c r="C252" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A252,", ",B252,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, brief moment, moment, All</v>
       </c>
       <c r="D252" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A252,1))&amp;RIGHT(A252,LEN(A252)-1),", ",UPPER(LEFT(B252,1))&amp;RIGHT(B252,LEN(B252)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Brief moment, Moment, All</v>
       </c>
     </row>
@@ -7066,11 +7075,11 @@
         <v>14</v>
       </c>
       <c r="C253" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A253,", ",B253,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, majority of, most, All</v>
       </c>
       <c r="D253" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A253,1))&amp;RIGHT(A253,LEN(A253)-1),", ",UPPER(LEFT(B253,1))&amp;RIGHT(B253,LEN(B253)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Majority of, Most, All</v>
       </c>
     </row>
@@ -7082,11 +7091,11 @@
         <v>764</v>
       </c>
       <c r="C254" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A254,", ",B254,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, wall mural, mural, All</v>
       </c>
       <c r="D254" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A254,1))&amp;RIGHT(A254,LEN(A254)-1),", ",UPPER(LEFT(B254,1))&amp;RIGHT(B254,LEN(B254)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Wall mural, Mural, All</v>
       </c>
     </row>
@@ -7098,11 +7107,11 @@
         <v>530</v>
       </c>
       <c r="C255" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A255,", ",B255,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, mutual respect for each other, mutual respect , All</v>
       </c>
       <c r="D255" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A255,1))&amp;RIGHT(A255,LEN(A255)-1),", ",UPPER(LEFT(B255,1))&amp;RIGHT(B255,LEN(B255)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Mutual respect for each other, Mutual respect , All</v>
       </c>
     </row>
@@ -7114,11 +7123,11 @@
         <v>23</v>
       </c>
       <c r="C256" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A256,", ",B256,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, myriad of, myriad, All</v>
       </c>
       <c r="D256" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A256,1))&amp;RIGHT(A256,LEN(A256)-1),", ",UPPER(LEFT(B256,1))&amp;RIGHT(B256,LEN(B256)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Myriad of, Myriad, All</v>
       </c>
     </row>
@@ -7130,11 +7139,11 @@
         <v>534</v>
       </c>
       <c r="C257" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A257,", ",B257,", All")</f>
+        <f t="shared" si="6"/>
         <v>stringReplace, contents, contents, nape of his neck, nape , All</v>
       </c>
       <c r="D257" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A257,1))&amp;RIGHT(A257,LEN(A257)-1),", ",UPPER(LEFT(B257,1))&amp;RIGHT(B257,LEN(B257)-1),", All")</f>
+        <f t="shared" si="7"/>
         <v>stringReplace, contents, contents, Nape of his neck, Nape , All</v>
       </c>
     </row>
@@ -7146,11 +7155,11 @@
         <v>534</v>
       </c>
       <c r="C258" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A258,", ",B258,", All")</f>
+        <f t="shared" ref="C258:C321" si="8">CONCATENATE("stringReplace, contents, contents, ",A258,", ",B258,", All")</f>
         <v>stringReplace, contents, contents, nape of her neck, nape , All</v>
       </c>
       <c r="D258" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A258,1))&amp;RIGHT(A258,LEN(A258)-1),", ",UPPER(LEFT(B258,1))&amp;RIGHT(B258,LEN(B258)-1),", All")</f>
+        <f t="shared" ref="D258:D321" si="9">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A258,1))&amp;RIGHT(A258,LEN(A258)-1),", ",UPPER(LEFT(B258,1))&amp;RIGHT(B258,LEN(B258)-1),", All")</f>
         <v>stringReplace, contents, contents, Nape of her neck, Nape , All</v>
       </c>
     </row>
@@ -7162,11 +7171,11 @@
         <v>211</v>
       </c>
       <c r="C259" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A259,", ",B259,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, absolutely necessary, necessary, All</v>
       </c>
       <c r="D259" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A259,1))&amp;RIGHT(A259,LEN(A259)-1),", ",UPPER(LEFT(B259,1))&amp;RIGHT(B259,LEN(B259)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Absolutely necessary, Necessary, All</v>
       </c>
     </row>
@@ -7178,11 +7187,11 @@
         <v>259</v>
       </c>
       <c r="C260" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A260,", ",B260,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, basic necessities, necessities, All</v>
       </c>
       <c r="D260" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A260,1))&amp;RIGHT(A260,LEN(A260)-1),", ",UPPER(LEFT(B260,1))&amp;RIGHT(B260,LEN(B260)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Basic necessities, Necessities, All</v>
       </c>
     </row>
@@ -7194,11 +7203,11 @@
         <v>31</v>
       </c>
       <c r="C261" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A261,", ",B261,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, in need of, need, All</v>
       </c>
       <c r="D261" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A261,1))&amp;RIGHT(A261,LEN(A261)-1),", ",UPPER(LEFT(B261,1))&amp;RIGHT(B261,LEN(B261)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, In need of, Need, All</v>
       </c>
     </row>
@@ -7210,11 +7219,11 @@
         <v>541</v>
       </c>
       <c r="C262" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A262,", ",B262,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, never before, never , All</v>
       </c>
       <c r="D262" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A262,1))&amp;RIGHT(A262,LEN(A262)-1),", ",UPPER(LEFT(B262,1))&amp;RIGHT(B262,LEN(B262)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Never before, Never , All</v>
       </c>
     </row>
@@ -7226,11 +7235,11 @@
         <v>553</v>
       </c>
       <c r="C263" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A263,", ",B263,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, none at all, none , All</v>
       </c>
       <c r="D263" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A263,1))&amp;RIGHT(A263,LEN(A263)-1),", ",UPPER(LEFT(B263,1))&amp;RIGHT(B263,LEN(B263)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, None at all, None , All</v>
       </c>
     </row>
@@ -7242,11 +7251,11 @@
         <v>734</v>
       </c>
       <c r="C264" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A264,", ",B264,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, twelve noon, noon, All</v>
       </c>
       <c r="D264" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A264,1))&amp;RIGHT(A264,LEN(A264)-1),", ",UPPER(LEFT(B264,1))&amp;RIGHT(B264,LEN(B264)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Twelve noon, Noon, All</v>
       </c>
     </row>
@@ -7258,11 +7267,11 @@
         <v>555</v>
       </c>
       <c r="C265" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A265,", ",B265,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, nostalgia for the past, nostalgia , All</v>
       </c>
       <c r="D265" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A265,1))&amp;RIGHT(A265,LEN(A265)-1),", ",UPPER(LEFT(B265,1))&amp;RIGHT(B265,LEN(B265)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Nostalgia for the past, Nostalgia , All</v>
       </c>
     </row>
@@ -7274,11 +7283,11 @@
         <v>76</v>
       </c>
       <c r="C266" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A266,", ",B266,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, advance notice, notice, All</v>
       </c>
       <c r="D266" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A266,1))&amp;RIGHT(A266,LEN(A266)-1),", ",UPPER(LEFT(B266,1))&amp;RIGHT(B266,LEN(B266)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Advance notice, Notice, All</v>
       </c>
     </row>
@@ -7290,11 +7299,11 @@
         <v>559</v>
       </c>
       <c r="C267" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A267,", ",B267,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, off of, off , All</v>
       </c>
       <c r="D267" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A267,1))&amp;RIGHT(A267,LEN(A267)-1),", ",UPPER(LEFT(B267,1))&amp;RIGHT(B267,LEN(B267)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Off of, Off , All</v>
       </c>
     </row>
@@ -7306,11 +7315,11 @@
         <v>568</v>
       </c>
       <c r="C268" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A268,", ",B268,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, open up, open , All</v>
       </c>
       <c r="D268" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A268,1))&amp;RIGHT(A268,LEN(A268)-1),", ",UPPER(LEFT(B268,1))&amp;RIGHT(B268,LEN(B268)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Open up, Open , All</v>
       </c>
     </row>
@@ -7322,11 +7331,11 @@
         <v>384</v>
       </c>
       <c r="C269" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A269,", ",B269,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, exposed opening, opening, All</v>
       </c>
       <c r="D269" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A269,1))&amp;RIGHT(A269,LEN(A269)-1),", ",UPPER(LEFT(B269,1))&amp;RIGHT(B269,LEN(B269)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Exposed opening, Opening, All</v>
       </c>
     </row>
@@ -7338,11 +7347,11 @@
         <v>597</v>
       </c>
       <c r="C270" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A270,", ",B270,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, personal opinion, opinion, All</v>
       </c>
       <c r="D270" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A270,1))&amp;RIGHT(A270,LEN(A270)-1),", ",UPPER(LEFT(B270,1))&amp;RIGHT(B270,LEN(B270)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Personal opinion, Opinion, All</v>
       </c>
     </row>
@@ -7354,11 +7363,11 @@
         <v>105</v>
       </c>
       <c r="C271" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A271,", ",B271,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, completely opposite, opposite, All</v>
       </c>
       <c r="D271" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A271,1))&amp;RIGHT(A271,LEN(A271)-1),", ",UPPER(LEFT(B271,1))&amp;RIGHT(B271,LEN(B271)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Completely opposite, Opposite, All</v>
       </c>
     </row>
@@ -7370,11 +7379,11 @@
         <v>105</v>
       </c>
       <c r="C272" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A272,", ",B272,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, polar opposite, opposite, All</v>
       </c>
       <c r="D272" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A272,1))&amp;RIGHT(A272,LEN(A272)-1),", ",UPPER(LEFT(B272,1))&amp;RIGHT(B272,LEN(B272)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Polar opposite, Opposite, All</v>
       </c>
     </row>
@@ -7386,11 +7395,11 @@
         <v>807</v>
       </c>
       <c r="C273" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A273,", ",B273,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, orange in color, orange, All</v>
       </c>
       <c r="D273" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A273,1))&amp;RIGHT(A273,LEN(A273)-1),", ",UPPER(LEFT(B273,1))&amp;RIGHT(B273,LEN(B273)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Orange in color, Orange, All</v>
       </c>
     </row>
@@ -7402,11 +7411,11 @@
         <v>809</v>
       </c>
       <c r="C274" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A274,", ",B274,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, orchid in color, orchid, All</v>
       </c>
       <c r="D274" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A274,1))&amp;RIGHT(A274,LEN(A274)-1),", ",UPPER(LEFT(B274,1))&amp;RIGHT(B274,LEN(B274)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Orchid in color, Orchid, All</v>
       </c>
     </row>
@@ -7418,11 +7427,11 @@
         <v>132</v>
       </c>
       <c r="C275" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A275,", ",B275,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, final outcome, outcome, All</v>
       </c>
       <c r="D275" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A275,1))&amp;RIGHT(A275,LEN(A275)-1),", ",UPPER(LEFT(B275,1))&amp;RIGHT(B275,LEN(B275)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Final outcome, Outcome, All</v>
       </c>
     </row>
@@ -7434,11 +7443,11 @@
         <v>574</v>
       </c>
       <c r="C276" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A276,", ",B276,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, output out of, output , All</v>
       </c>
       <c r="D276" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A276,1))&amp;RIGHT(A276,LEN(A276)-1),", ",UPPER(LEFT(B276,1))&amp;RIGHT(B276,LEN(B276)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Output out of, Output , All</v>
       </c>
     </row>
@@ -7450,11 +7459,11 @@
         <v>578</v>
       </c>
       <c r="C277" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A277,", ",B277,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, outside of, outside , All</v>
       </c>
       <c r="D277" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A277,1))&amp;RIGHT(A277,LEN(A277)-1),", ",UPPER(LEFT(B277,1))&amp;RIGHT(B277,LEN(B277)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Outside of, Outside , All</v>
       </c>
     </row>
@@ -7466,11 +7475,11 @@
         <v>581</v>
       </c>
       <c r="C278" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A278,", ",B278,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, over with, over , All</v>
       </c>
       <c r="D278" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A278,1))&amp;RIGHT(A278,LEN(A278)-1),", ",UPPER(LEFT(B278,1))&amp;RIGHT(B278,LEN(B278)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Over with, Over , All</v>
       </c>
     </row>
@@ -7482,11 +7491,11 @@
         <v>18</v>
       </c>
       <c r="C279" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A279,", ",B279,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, overly aggressive, overaggressive, All</v>
       </c>
       <c r="D279" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A279,1))&amp;RIGHT(A279,LEN(A279)-1),", ",UPPER(LEFT(B279,1))&amp;RIGHT(B279,LEN(B279)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Overly aggressive, Overaggressive, All</v>
       </c>
     </row>
@@ -7498,11 +7507,11 @@
         <v>16</v>
       </c>
       <c r="C280" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A280,", ",B280,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, overly careful, overcareful, All</v>
       </c>
       <c r="D280" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A280,1))&amp;RIGHT(A280,LEN(A280)-1),", ",UPPER(LEFT(B280,1))&amp;RIGHT(B280,LEN(B280)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Overly careful, Overcareful, All</v>
       </c>
     </row>
@@ -7514,11 +7523,11 @@
         <v>163</v>
       </c>
       <c r="C281" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A281,", ",B281,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, p.m. in the evening, p.m., All</v>
       </c>
       <c r="D281" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A281,1))&amp;RIGHT(A281,LEN(A281)-1),", ",UPPER(LEFT(B281,1))&amp;RIGHT(B281,LEN(B281)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, P.m. in the evening, P.m., All</v>
       </c>
     </row>
@@ -7530,11 +7539,11 @@
         <v>584</v>
       </c>
       <c r="C282" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A282,", ",B282,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, palm of the hand, palm , All</v>
       </c>
       <c r="D282" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A282,1))&amp;RIGHT(A282,LEN(A282)-1),", ",UPPER(LEFT(B282,1))&amp;RIGHT(B282,LEN(B282)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Palm of the hand, Palm , All</v>
       </c>
     </row>
@@ -7546,11 +7555,11 @@
         <v>748</v>
       </c>
       <c r="C283" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A283,", ",B283,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, universal panacea, panacea, All</v>
       </c>
       <c r="D283" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A283,1))&amp;RIGHT(A283,LEN(A283)-1),", ",UPPER(LEFT(B283,1))&amp;RIGHT(B283,LEN(B283)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Universal panacea, Panacea, All</v>
       </c>
     </row>
@@ -7562,11 +7571,11 @@
         <v>318</v>
       </c>
       <c r="C284" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A284,", ",B284,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, component part, part, All</v>
       </c>
       <c r="D284" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A284,1))&amp;RIGHT(A284,LEN(A284)-1),", ",UPPER(LEFT(B284,1))&amp;RIGHT(B284,LEN(B284)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Component part, Part, All</v>
       </c>
     </row>
@@ -7578,11 +7587,11 @@
         <v>557</v>
       </c>
       <c r="C285" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A285,", ",B285,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, now pending, pending, All</v>
       </c>
       <c r="D285" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A285,1))&amp;RIGHT(A285,LEN(A285)-1),", ",UPPER(LEFT(B285,1))&amp;RIGHT(B285,LEN(B285)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Now pending, Pending, All</v>
       </c>
     </row>
@@ -7594,11 +7603,11 @@
         <v>591</v>
       </c>
       <c r="C286" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A286,", ",B286,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, penetrate into, penetrate , All</v>
       </c>
       <c r="D286" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A286,1))&amp;RIGHT(A286,LEN(A286)-1),", ",UPPER(LEFT(B286,1))&amp;RIGHT(B286,LEN(B286)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Penetrate into, Penetrate , All</v>
       </c>
     </row>
@@ -7610,11 +7619,11 @@
         <v>58</v>
       </c>
       <c r="C287" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A287,", ",B287,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, as per, per, All</v>
       </c>
       <c r="D287" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A287,1))&amp;RIGHT(A287,LEN(A287)-1),", ",UPPER(LEFT(B287,1))&amp;RIGHT(B287,LEN(B287)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, As per, Per, All</v>
       </c>
     </row>
@@ -7626,11 +7635,11 @@
         <v>593</v>
       </c>
       <c r="C288" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A288,", ",B288,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, period of time, period , All</v>
       </c>
       <c r="D288" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A288,1))&amp;RIGHT(A288,LEN(A288)-1),", ",UPPER(LEFT(B288,1))&amp;RIGHT(B288,LEN(B288)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Period of time, Period , All</v>
       </c>
     </row>
@@ -7642,11 +7651,11 @@
         <v>705</v>
       </c>
       <c r="C289" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A289,", ",B289,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, still persist, persist, All</v>
       </c>
       <c r="D289" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A289,1))&amp;RIGHT(A289,LEN(A289)-1),", ",UPPER(LEFT(B289,1))&amp;RIGHT(B289,LEN(B289)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Still persist, Persist, All</v>
       </c>
     </row>
@@ -7658,11 +7667,11 @@
         <v>599</v>
       </c>
       <c r="C290" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A290,", ",B290,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, pick and choose, pick , All</v>
       </c>
       <c r="D290" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A290,1))&amp;RIGHT(A290,LEN(A290)-1),", ",UPPER(LEFT(B290,1))&amp;RIGHT(B290,LEN(B290)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Pick and choose, Pick , All</v>
       </c>
     </row>
@@ -7674,11 +7683,11 @@
         <v>601</v>
       </c>
       <c r="C291" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A291,", ",B291,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, PIN number, PIN , All</v>
       </c>
       <c r="D291" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A291,1))&amp;RIGHT(A291,LEN(A291)-1),", ",UPPER(LEFT(B291,1))&amp;RIGHT(B291,LEN(B291)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, PIN number, PIN , All</v>
       </c>
     </row>
@@ -7690,11 +7699,11 @@
         <v>603</v>
       </c>
       <c r="C292" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A292,", ",B292,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, pizza pie, pizza , All</v>
       </c>
       <c r="D292" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A292,1))&amp;RIGHT(A292,LEN(A292)-1),", ",UPPER(LEFT(B292,1))&amp;RIGHT(B292,LEN(B292)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Pizza pie, Pizza , All</v>
       </c>
     </row>
@@ -7706,11 +7715,11 @@
         <v>169</v>
       </c>
       <c r="C293" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A293,", ",B293,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, plan ahead, plan, All</v>
       </c>
       <c r="D293" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A293,1))&amp;RIGHT(A293,LEN(A293)-1),", ",UPPER(LEFT(B293,1))&amp;RIGHT(B293,LEN(B293)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Plan ahead, Plan, All</v>
       </c>
     </row>
@@ -7722,11 +7731,11 @@
         <v>169</v>
       </c>
       <c r="C294" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A294,", ",B294,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, proposed plan, plan, All</v>
       </c>
       <c r="D294" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A294,1))&amp;RIGHT(A294,LEN(A294)-1),", ",UPPER(LEFT(B294,1))&amp;RIGHT(B294,LEN(B294)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Proposed plan, Plan, All</v>
       </c>
     </row>
@@ -7738,11 +7747,11 @@
         <v>604</v>
       </c>
       <c r="C295" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A295,", ",B295,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, plan ahead, plan , All</v>
       </c>
       <c r="D295" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A295,1))&amp;RIGHT(A295,LEN(A295)-1),", ",UPPER(LEFT(B295,1))&amp;RIGHT(B295,LEN(B295)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Plan ahead, Plan , All</v>
       </c>
     </row>
@@ -7754,11 +7763,11 @@
         <v>604</v>
       </c>
       <c r="C296" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A296,", ",B296,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, plan in advance, plan , All</v>
       </c>
       <c r="D296" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A296,1))&amp;RIGHT(A296,LEN(A296)-1),", ",UPPER(LEFT(B296,1))&amp;RIGHT(B296,LEN(B296)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Plan in advance, Plan , All</v>
       </c>
     </row>
@@ -7770,11 +7779,11 @@
         <v>78</v>
       </c>
       <c r="C297" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A297,", ",B297,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, advanced planning, planning, All</v>
       </c>
       <c r="D297" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A297,1))&amp;RIGHT(A297,LEN(A297)-1),", ",UPPER(LEFT(B297,1))&amp;RIGHT(B297,LEN(B297)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Advanced planning, Planning, All</v>
       </c>
     </row>
@@ -7786,11 +7795,11 @@
         <v>78</v>
       </c>
       <c r="C298" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A298,", ",B298,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, advance planning, planning, All</v>
       </c>
       <c r="D298" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A298,1))&amp;RIGHT(A298,LEN(A298)-1),", ",UPPER(LEFT(B298,1))&amp;RIGHT(B298,LEN(B298)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Advance planning, Planning, All</v>
       </c>
     </row>
@@ -7802,11 +7811,11 @@
         <v>827</v>
       </c>
       <c r="C299" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A299,", ",B299,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, future plans, plans, All</v>
       </c>
       <c r="D299" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A299,1))&amp;RIGHT(A299,LEN(A299)-1),", ",UPPER(LEFT(B299,1))&amp;RIGHT(B299,LEN(B299)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Future plans, Plans, All</v>
       </c>
     </row>
@@ -7818,11 +7827,11 @@
         <v>609</v>
       </c>
       <c r="C300" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A300,", ",B300,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, plunge down, plunge , All</v>
       </c>
       <c r="D300" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A300,1))&amp;RIGHT(A300,LEN(A300)-1),", ",UPPER(LEFT(B300,1))&amp;RIGHT(B300,LEN(B300)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Plunge down, Plunge , All</v>
       </c>
     </row>
@@ -7834,11 +7843,11 @@
         <v>681</v>
       </c>
       <c r="C301" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A301,", ",B301,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, sharp point, point, All</v>
       </c>
       <c r="D301" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A301,1))&amp;RIGHT(A301,LEN(A301)-1),", ",UPPER(LEFT(B301,1))&amp;RIGHT(B301,LEN(B301)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Sharp point, Point, All</v>
       </c>
     </row>
@@ -7850,11 +7859,11 @@
         <v>173</v>
       </c>
       <c r="C302" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A302,", ",B302,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, postpone until later, postpone, All</v>
       </c>
       <c r="D302" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A302,1))&amp;RIGHT(A302,LEN(A302)-1),", ",UPPER(LEFT(B302,1))&amp;RIGHT(B302,LEN(B302)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Postpone until later, Postpone, All</v>
       </c>
     </row>
@@ -7866,11 +7875,11 @@
         <v>613</v>
       </c>
       <c r="C303" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A303,", ",B303,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, postpone until later, postpone , All</v>
       </c>
       <c r="D303" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A303,1))&amp;RIGHT(A303,LEN(A303)-1),", ",UPPER(LEFT(B303,1))&amp;RIGHT(B303,LEN(B303)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Postpone until later, Postpone , All</v>
       </c>
     </row>
@@ -7882,11 +7891,11 @@
         <v>615</v>
       </c>
       <c r="C304" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A304,", ",B304,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, pouring down rain, pouring rain, All</v>
       </c>
       <c r="D304" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A304,1))&amp;RIGHT(A304,LEN(A304)-1),", ",UPPER(LEFT(B304,1))&amp;RIGHT(B304,LEN(B304)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Pouring down rain, Pouring rain, All</v>
       </c>
     </row>
@@ -7898,11 +7907,11 @@
         <v>758</v>
       </c>
       <c r="C305" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A305,", ",B305,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, very pregnant, pregnant, All</v>
       </c>
       <c r="D305" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A305,1))&amp;RIGHT(A305,LEN(A305)-1),", ",UPPER(LEFT(B305,1))&amp;RIGHT(B305,LEN(B305)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Very pregnant, Pregnant, All</v>
       </c>
     </row>
@@ -7914,11 +7923,11 @@
         <v>625</v>
       </c>
       <c r="C306" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A306,", ",B306,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, present time, present , All</v>
       </c>
       <c r="D306" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A306,1))&amp;RIGHT(A306,LEN(A306)-1),", ",UPPER(LEFT(B306,1))&amp;RIGHT(B306,LEN(B306)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Present time, Present , All</v>
       </c>
     </row>
@@ -7930,11 +7939,11 @@
         <v>129</v>
       </c>
       <c r="C307" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A307,", ",B307,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, false pretense, pretense, All</v>
       </c>
       <c r="D307" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A307,1))&amp;RIGHT(A307,LEN(A307)-1),", ",UPPER(LEFT(B307,1))&amp;RIGHT(B307,LEN(B307)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, False pretense, Pretense, All</v>
       </c>
     </row>
@@ -7946,11 +7955,11 @@
         <v>218</v>
       </c>
       <c r="C308" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A308,", ",B308,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, advance preview, preview, All</v>
       </c>
       <c r="D308" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A308,1))&amp;RIGHT(A308,LEN(A308)-1),", ",UPPER(LEFT(B308,1))&amp;RIGHT(B308,LEN(B308)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Advance preview, Preview, All</v>
       </c>
     </row>
@@ -7962,11 +7971,11 @@
         <v>627</v>
       </c>
       <c r="C309" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A309,", ",B309,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, previously listed above, previously listed , All</v>
       </c>
       <c r="D309" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A309,1))&amp;RIGHT(A309,LEN(A309)-1),", ",UPPER(LEFT(B309,1))&amp;RIGHT(B309,LEN(B309)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Previously listed above, Previously listed , All</v>
       </c>
     </row>
@@ -7978,11 +7987,11 @@
         <v>629</v>
       </c>
       <c r="C310" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A310,", ",B310,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, proceed ahead, proceed , All</v>
       </c>
       <c r="D310" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A310,1))&amp;RIGHT(A310,LEN(A310)-1),", ",UPPER(LEFT(B310,1))&amp;RIGHT(B310,LEN(B310)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Proceed ahead, Proceed , All</v>
       </c>
     </row>
@@ -7994,11 +8003,11 @@
         <v>21</v>
       </c>
       <c r="C311" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A311,", ",B311,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, in a prompt manner, promptly, All</v>
       </c>
       <c r="D311" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A311,1))&amp;RIGHT(A311,LEN(A311)-1),", ",UPPER(LEFT(B311,1))&amp;RIGHT(B311,LEN(B311)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, In a prompt manner, Promptly, All</v>
       </c>
     </row>
@@ -8010,11 +8019,11 @@
         <v>240</v>
       </c>
       <c r="C312" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A312,", ",B312,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, artificial prosthesis, prosthesis, All</v>
       </c>
       <c r="D312" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A312,1))&amp;RIGHT(A312,LEN(A312)-1),", ",UPPER(LEFT(B312,1))&amp;RIGHT(B312,LEN(B312)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Artificial prosthesis, Prosthesis, All</v>
       </c>
     </row>
@@ -8026,11 +8035,11 @@
         <v>175</v>
       </c>
       <c r="C313" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A313,", ",B313,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, protest against, protest, All</v>
       </c>
       <c r="D313" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A313,1))&amp;RIGHT(A313,LEN(A313)-1),", ",UPPER(LEFT(B313,1))&amp;RIGHT(B313,LEN(B313)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Protest against, Protest, All</v>
       </c>
     </row>
@@ -8042,11 +8051,11 @@
         <v>631</v>
       </c>
       <c r="C314" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A314,", ",B314,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, protest against, protest , All</v>
       </c>
       <c r="D314" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A314,1))&amp;RIGHT(A314,LEN(A314)-1),", ",UPPER(LEFT(B314,1))&amp;RIGHT(B314,LEN(B314)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Protest against, Protest , All</v>
       </c>
     </row>
@@ -8058,11 +8067,11 @@
         <v>176</v>
       </c>
       <c r="C315" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A315,", ",B315,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, protesting against, protesting, All</v>
       </c>
       <c r="D315" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A315,1))&amp;RIGHT(A315,LEN(A315)-1),", ",UPPER(LEFT(B315,1))&amp;RIGHT(B315,LEN(B315)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Protesting against, Protesting, All</v>
       </c>
     </row>
@@ -8074,11 +8083,11 @@
         <v>564</v>
       </c>
       <c r="C316" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A316,", ",B316,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, old proverb, proverb, All</v>
       </c>
       <c r="D316" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A316,1))&amp;RIGHT(A316,LEN(A316)-1),", ",UPPER(LEFT(B316,1))&amp;RIGHT(B316,LEN(B316)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Old proverb, Proverb, All</v>
       </c>
     </row>
@@ -8090,11 +8099,11 @@
         <v>91</v>
       </c>
       <c r="C317" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A317,", ",B317,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, close proximity, proximity, All</v>
       </c>
       <c r="D317" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A317,1))&amp;RIGHT(A317,LEN(A317)-1),", ",UPPER(LEFT(B317,1))&amp;RIGHT(B317,LEN(B317)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Close proximity, Proximity, All</v>
       </c>
     </row>
@@ -8106,11 +8115,11 @@
         <v>826</v>
       </c>
       <c r="C318" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A318,", ",B318,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, general public, public, All</v>
       </c>
       <c r="D318" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A318,1))&amp;RIGHT(A318,LEN(A318)-1),", ",UPPER(LEFT(B318,1))&amp;RIGHT(B318,LEN(B318)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, General public, Public, All</v>
       </c>
     </row>
@@ -8122,11 +8131,11 @@
         <v>633</v>
       </c>
       <c r="C319" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A319,", ",B319,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, pursue after, pursue , All</v>
       </c>
       <c r="D319" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A319,1))&amp;RIGHT(A319,LEN(A319)-1),", ",UPPER(LEFT(B319,1))&amp;RIGHT(B319,LEN(B319)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Pursue after, Pursue , All</v>
       </c>
     </row>
@@ -8138,11 +8147,11 @@
         <v>811</v>
       </c>
       <c r="C320" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A320,", ",B320,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, quartz in color, quartz, All</v>
       </c>
       <c r="D320" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A320,1))&amp;RIGHT(A320,LEN(A320)-1),", ",UPPER(LEFT(B320,1))&amp;RIGHT(B320,LEN(B320)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Quartz in color, Quartz, All</v>
       </c>
     </row>
@@ -8154,11 +8163,11 @@
         <v>635</v>
       </c>
       <c r="C321" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A321,", ",B321,", All")</f>
+        <f t="shared" si="8"/>
         <v>stringReplace, contents, contents, raise up, raise , All</v>
       </c>
       <c r="D321" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A321,1))&amp;RIGHT(A321,LEN(A321)-1),", ",UPPER(LEFT(B321,1))&amp;RIGHT(B321,LEN(B321)-1),", All")</f>
+        <f t="shared" si="9"/>
         <v>stringReplace, contents, contents, Raise up, Raise , All</v>
       </c>
     </row>
@@ -8170,11 +8179,11 @@
         <v>637</v>
       </c>
       <c r="C322" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A322,", ",B322,", All")</f>
+        <f t="shared" ref="C322:C385" si="10">CONCATENATE("stringReplace, contents, contents, ",A322,", ",B322,", All")</f>
         <v>stringReplace, contents, contents, RAM memory, RAM , All</v>
       </c>
       <c r="D322" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A322,1))&amp;RIGHT(A322,LEN(A322)-1),", ",UPPER(LEFT(B322,1))&amp;RIGHT(B322,LEN(B322)-1),", All")</f>
+        <f t="shared" ref="D322:D385" si="11">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A322,1))&amp;RIGHT(A322,LEN(A322)-1),", ",UPPER(LEFT(B322,1))&amp;RIGHT(B322,LEN(B322)-1),", All")</f>
         <v>stringReplace, contents, contents, RAM memory, RAM , All</v>
       </c>
     </row>
@@ -8186,11 +8195,11 @@
         <v>641</v>
       </c>
       <c r="C323" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A323,", ",B323,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, reason why, reason , All</v>
       </c>
       <c r="D323" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A323,1))&amp;RIGHT(A323,LEN(A323)-1),", ",UPPER(LEFT(B323,1))&amp;RIGHT(B323,LEN(B323)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Reason why, Reason , All</v>
       </c>
     </row>
@@ -8202,11 +8211,11 @@
         <v>639</v>
       </c>
       <c r="C324" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A324,", ",B324,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, reason is because, reason is , All</v>
       </c>
       <c r="D324" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A324,1))&amp;RIGHT(A324,LEN(A324)-1),", ",UPPER(LEFT(B324,1))&amp;RIGHT(B324,LEN(B324)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Reason is because, Reason is , All</v>
       </c>
     </row>
@@ -8218,11 +8227,11 @@
         <v>167</v>
       </c>
       <c r="C325" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A325,", ",B325,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, past record, record, All</v>
       </c>
       <c r="D325" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A325,1))&amp;RIGHT(A325,LEN(A325)-1),", ",UPPER(LEFT(B325,1))&amp;RIGHT(B325,LEN(B325)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Past record, Record, All</v>
       </c>
     </row>
@@ -8234,11 +8243,11 @@
         <v>167</v>
       </c>
       <c r="C326" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A326,", ",B326,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, all-time record, record, All</v>
       </c>
       <c r="D326" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A326,1))&amp;RIGHT(A326,LEN(A326)-1),", ",UPPER(LEFT(B326,1))&amp;RIGHT(B326,LEN(B326)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, All-time record, Record, All</v>
       </c>
     </row>
@@ -8250,11 +8259,11 @@
         <v>167</v>
       </c>
       <c r="C327" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A327,", ",B327,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, prerecord, record, All</v>
       </c>
       <c r="D327" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A327,1))&amp;RIGHT(A327,LEN(A327)-1),", ",UPPER(LEFT(B327,1))&amp;RIGHT(B327,LEN(B327)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Prerecord, Record, All</v>
       </c>
     </row>
@@ -8266,11 +8275,11 @@
         <v>551</v>
       </c>
       <c r="C328" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A328,", ",B328,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, new recruit, recruit, All</v>
       </c>
       <c r="D328" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A328,1))&amp;RIGHT(A328,LEN(A328)-1),", ",UPPER(LEFT(B328,1))&amp;RIGHT(B328,LEN(B328)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, New recruit, Recruit, All</v>
       </c>
     </row>
@@ -8282,11 +8291,11 @@
         <v>643</v>
       </c>
       <c r="C329" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A329,", ",B329,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, recur again, recur , All</v>
       </c>
       <c r="D329" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A329,1))&amp;RIGHT(A329,LEN(A329)-1),", ",UPPER(LEFT(B329,1))&amp;RIGHT(B329,LEN(B329)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Recur again, Recur , All</v>
       </c>
     </row>
@@ -8298,11 +8307,11 @@
         <v>825</v>
       </c>
       <c r="C330" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A330,", ",B330,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, future recurrence, recurrence, All</v>
       </c>
       <c r="D330" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A330,1))&amp;RIGHT(A330,LEN(A330)-1),", ",UPPER(LEFT(B330,1))&amp;RIGHT(B330,LEN(B330)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Future recurrence, Recurrence, All</v>
       </c>
     </row>
@@ -8314,11 +8323,11 @@
         <v>777</v>
       </c>
       <c r="C331" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A331,", ",B331,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, red in color, red, All</v>
       </c>
       <c r="D331" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A331,1))&amp;RIGHT(A331,LEN(A331)-1),", ",UPPER(LEFT(B331,1))&amp;RIGHT(B331,LEN(B331)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Red in color, Red, All</v>
       </c>
     </row>
@@ -8330,11 +8339,11 @@
         <v>645</v>
       </c>
       <c r="C332" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A332,", ",B332,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, re-elect for another term, re-elect , All</v>
       </c>
       <c r="D332" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A332,1))&amp;RIGHT(A332,LEN(A332)-1),", ",UPPER(LEFT(B332,1))&amp;RIGHT(B332,LEN(B332)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Re-elect for another term, Re-elect , All</v>
       </c>
     </row>
@@ -8346,11 +8355,11 @@
         <v>647</v>
       </c>
       <c r="C333" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A333,", ",B333,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, refer back, refer , All</v>
       </c>
       <c r="D333" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A333,1))&amp;RIGHT(A333,LEN(A333)-1),", ",UPPER(LEFT(B333,1))&amp;RIGHT(B333,LEN(B333)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Refer back, Refer , All</v>
       </c>
     </row>
@@ -8362,11 +8371,11 @@
         <v>649</v>
       </c>
       <c r="C334" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A334,", ",B334,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, reflect back, reflect , All</v>
       </c>
       <c r="D334" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A334,1))&amp;RIGHT(A334,LEN(A334)-1),", ",UPPER(LEFT(B334,1))&amp;RIGHT(B334,LEN(B334)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Reflect back, Reflect , All</v>
       </c>
     </row>
@@ -8378,11 +8387,11 @@
         <v>474</v>
       </c>
       <c r="C335" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A335,", ",B335,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, irregardless, regardless, All</v>
       </c>
       <c r="D335" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A335,1))&amp;RIGHT(A335,LEN(A335)-1),", ",UPPER(LEFT(B335,1))&amp;RIGHT(B335,LEN(B335)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Irregardless, Regardless, All</v>
       </c>
     </row>
@@ -8394,11 +8403,11 @@
         <v>54</v>
       </c>
       <c r="C336" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A336,", ",B336,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, on a regular basis, regularly, All</v>
       </c>
       <c r="D336" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A336,1))&amp;RIGHT(A336,LEN(A336)-1),", ",UPPER(LEFT(B336,1))&amp;RIGHT(B336,LEN(B336)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, On a regular basis, Regularly, All</v>
       </c>
     </row>
@@ -8410,11 +8419,11 @@
         <v>50</v>
       </c>
       <c r="C337" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A337,", ",B337,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, on a relative basis , relatively, All</v>
       </c>
       <c r="D337" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A337,1))&amp;RIGHT(A337,LEN(A337)-1),", ",UPPER(LEFT(B337,1))&amp;RIGHT(B337,LEN(B337)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, On a relative basis , Relatively, All</v>
       </c>
     </row>
@@ -8426,11 +8435,11 @@
         <v>189</v>
       </c>
       <c r="C338" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A338,", ",B338,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, still remain, remain, All</v>
       </c>
       <c r="D338" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A338,1))&amp;RIGHT(A338,LEN(A338)-1),", ",UPPER(LEFT(B338,1))&amp;RIGHT(B338,LEN(B338)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Still remain, Remain, All</v>
       </c>
     </row>
@@ -8442,11 +8451,11 @@
         <v>341</v>
       </c>
       <c r="C339" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A339,", ",B339,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, current trend, rend, All</v>
       </c>
       <c r="D339" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A339,1))&amp;RIGHT(A339,LEN(A339)-1),", ",UPPER(LEFT(B339,1))&amp;RIGHT(B339,LEN(B339)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Current trend, Rend, All</v>
       </c>
     </row>
@@ -8458,11 +8467,11 @@
         <v>179</v>
       </c>
       <c r="C340" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A340,", ",B340,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, repeat again, repeat, All</v>
       </c>
       <c r="D340" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A340,1))&amp;RIGHT(A340,LEN(A340)-1),", ",UPPER(LEFT(B340,1))&amp;RIGHT(B340,LEN(B340)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Repeat again, Repeat, All</v>
       </c>
     </row>
@@ -8474,11 +8483,11 @@
         <v>652</v>
       </c>
       <c r="C341" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A341,", ",B341,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, repeat again, repeat , All</v>
       </c>
       <c r="D341" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A341,1))&amp;RIGHT(A341,LEN(A341)-1),", ",UPPER(LEFT(B341,1))&amp;RIGHT(B341,LEN(B341)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Repeat again, Repeat , All</v>
       </c>
     </row>
@@ -8490,11 +8499,11 @@
         <v>654</v>
       </c>
       <c r="C342" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A342,", ",B342,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, reply back, reply , All</v>
       </c>
       <c r="D342" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A342,1))&amp;RIGHT(A342,LEN(A342)-1),", ",UPPER(LEFT(B342,1))&amp;RIGHT(B342,LEN(B342)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Reply back, Reply , All</v>
       </c>
     </row>
@@ -8506,11 +8515,11 @@
         <v>153</v>
       </c>
       <c r="C343" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A343,", ",B343,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, advanced reservation, reservation, All</v>
       </c>
       <c r="D343" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A343,1))&amp;RIGHT(A343,LEN(A343)-1),", ",UPPER(LEFT(B343,1))&amp;RIGHT(B343,LEN(B343)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Advanced reservation, Reservation, All</v>
       </c>
     </row>
@@ -8522,11 +8531,11 @@
         <v>79</v>
       </c>
       <c r="C344" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A344,", ",B344,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, advance reservations, reservations, All</v>
       </c>
       <c r="D344" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A344,1))&amp;RIGHT(A344,LEN(A344)-1),", ",UPPER(LEFT(B344,1))&amp;RIGHT(B344,LEN(B344)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Advance reservations, Reservations, All</v>
       </c>
     </row>
@@ -8538,11 +8547,11 @@
         <v>499</v>
       </c>
       <c r="C345" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A345,", ",B345,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, local residents, residents, All</v>
       </c>
       <c r="D345" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A345,1))&amp;RIGHT(A345,LEN(A345)-1),", ",UPPER(LEFT(B345,1))&amp;RIGHT(B345,LEN(B345)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Local residents, Residents, All</v>
       </c>
     </row>
@@ -8554,11 +8563,11 @@
         <v>119</v>
       </c>
       <c r="C346" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A346,", ",B346,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, end result, result, All</v>
       </c>
       <c r="D346" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A346,1))&amp;RIGHT(A346,LEN(A346)-1),", ",UPPER(LEFT(B346,1))&amp;RIGHT(B346,LEN(B346)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, End result, Result, All</v>
       </c>
     </row>
@@ -8570,11 +8579,11 @@
         <v>656</v>
       </c>
       <c r="C347" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A347,", ",B347,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, retreat back, retreat , All</v>
       </c>
       <c r="D347" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A347,1))&amp;RIGHT(A347,LEN(A347)-1),", ",UPPER(LEFT(B347,1))&amp;RIGHT(B347,LEN(B347)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Retreat back, Retreat , All</v>
       </c>
     </row>
@@ -8586,11 +8595,11 @@
         <v>181</v>
       </c>
       <c r="C348" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A348,", ",B348,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, revert back, revert, All</v>
       </c>
       <c r="D348" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A348,1))&amp;RIGHT(A348,LEN(A348)-1),", ",UPPER(LEFT(B348,1))&amp;RIGHT(B348,LEN(B348)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Revert back, Revert, All</v>
       </c>
     </row>
@@ -8602,11 +8611,11 @@
         <v>657</v>
       </c>
       <c r="C349" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A349,", ",B349,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, revert back, revert , All</v>
       </c>
       <c r="D349" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A349,1))&amp;RIGHT(A349,LEN(A349)-1),", ",UPPER(LEFT(B349,1))&amp;RIGHT(B349,LEN(B349)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Revert back, Revert , All</v>
       </c>
     </row>
@@ -8618,11 +8627,11 @@
         <v>659</v>
       </c>
       <c r="C350" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A350,", ",B350,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, rise up, rise , All</v>
       </c>
       <c r="D350" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A350,1))&amp;RIGHT(A350,LEN(A350)-1),", ",UPPER(LEFT(B350,1))&amp;RIGHT(B350,LEN(B350)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Rise up, Rise , All</v>
       </c>
     </row>
@@ -8634,11 +8643,11 @@
         <v>661</v>
       </c>
       <c r="C351" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A351,", ",B351,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, round in shape, round , All</v>
       </c>
       <c r="D351" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A351,1))&amp;RIGHT(A351,LEN(A351)-1),", ",UPPER(LEFT(B351,1))&amp;RIGHT(B351,LEN(B351)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Round in shape, Round , All</v>
       </c>
     </row>
@@ -8650,11 +8659,11 @@
         <v>651</v>
       </c>
       <c r="C352" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A352,", ",B352,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, regular routine, routine, All</v>
       </c>
       <c r="D352" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A352,1))&amp;RIGHT(A352,LEN(A352)-1),", ",UPPER(LEFT(B352,1))&amp;RIGHT(B352,LEN(B352)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Regular routine, Routine, All</v>
       </c>
     </row>
@@ -8666,11 +8675,11 @@
         <v>607</v>
       </c>
       <c r="C353" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A353,", ",B353,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, Please RSVP, RSVP, All</v>
       </c>
       <c r="D353" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A353,1))&amp;RIGHT(A353,LEN(A353)-1),", ",UPPER(LEFT(B353,1))&amp;RIGHT(B353,LEN(B353)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Please RSVP, RSVP, All</v>
       </c>
     </row>
@@ -8682,11 +8691,11 @@
         <v>383</v>
       </c>
       <c r="C354" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A354,", ",B354,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, exact same, same, All</v>
       </c>
       <c r="D354" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A354,1))&amp;RIGHT(A354,LEN(A354)-1),", ",UPPER(LEFT(B354,1))&amp;RIGHT(B354,LEN(B354)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Exact same, Same, All</v>
       </c>
     </row>
@@ -8698,11 +8707,11 @@
         <v>667</v>
       </c>
       <c r="C355" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A355,", ",B355,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, same exact, same , All</v>
       </c>
       <c r="D355" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A355,1))&amp;RIGHT(A355,LEN(A355)-1),", ",UPPER(LEFT(B355,1))&amp;RIGHT(B355,LEN(B355)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Same exact, Same , All</v>
       </c>
     </row>
@@ -8714,11 +8723,11 @@
         <v>665</v>
       </c>
       <c r="C356" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A356,", ",B356,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, safe sanctuary, sanctuary, All</v>
       </c>
       <c r="D356" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A356,1))&amp;RIGHT(A356,LEN(A356)-1),", ",UPPER(LEFT(B356,1))&amp;RIGHT(B356,LEN(B356)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Safe sanctuary, Sanctuary, All</v>
       </c>
     </row>
@@ -8730,11 +8739,11 @@
         <v>824</v>
       </c>
       <c r="C357" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A357,", ",B357,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, full satisfaction, satisfaction, All</v>
       </c>
       <c r="D357" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A357,1))&amp;RIGHT(A357,LEN(A357)-1),", ",UPPER(LEFT(B357,1))&amp;RIGHT(B357,LEN(B357)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Full satisfaction, Satisfaction, All</v>
       </c>
     </row>
@@ -8746,11 +8755,11 @@
         <v>813</v>
       </c>
       <c r="C358" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A358,", ",B358,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, scarlet in color, scarlet, All</v>
       </c>
       <c r="D358" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A358,1))&amp;RIGHT(A358,LEN(A358)-1),", ",UPPER(LEFT(B358,1))&amp;RIGHT(B358,LEN(B358)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Scarlet in color, Scarlet, All</v>
       </c>
     </row>
@@ -8762,11 +8771,11 @@
         <v>671</v>
       </c>
       <c r="C359" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A359,", ",B359,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, scrutinize in detail, scrutinize , All</v>
       </c>
       <c r="D359" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A359,1))&amp;RIGHT(A359,LEN(A359)-1),", ",UPPER(LEFT(B359,1))&amp;RIGHT(B359,LEN(B359)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Scrutinize in detail, Scrutinize , All</v>
       </c>
     </row>
@@ -8778,11 +8787,11 @@
         <v>93</v>
       </c>
       <c r="C360" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A360,", ",B360,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, close scrutiny, scrutiny, All</v>
       </c>
       <c r="D360" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A360,1))&amp;RIGHT(A360,LEN(A360)-1),", ",UPPER(LEFT(B360,1))&amp;RIGHT(B360,LEN(B360)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Close scrutiny, Scrutiny, All</v>
       </c>
     </row>
@@ -8794,11 +8803,11 @@
         <v>93</v>
       </c>
       <c r="C361" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A361,", ",B361,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, careful scrutiny, scrutiny, All</v>
       </c>
       <c r="D361" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A361,1))&amp;RIGHT(A361,LEN(A361)-1),", ",UPPER(LEFT(B361,1))&amp;RIGHT(B361,LEN(B361)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Careful scrutiny, Scrutiny, All</v>
       </c>
     </row>
@@ -8810,11 +8819,11 @@
         <v>675</v>
       </c>
       <c r="C362" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A362,", ",B362,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, separated apart from each other, separated , All</v>
       </c>
       <c r="D362" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A362,1))&amp;RIGHT(A362,LEN(A362)-1),", ",UPPER(LEFT(B362,1))&amp;RIGHT(B362,LEN(B362)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Separated apart from each other, Separated , All</v>
       </c>
     </row>
@@ -8826,11 +8835,11 @@
         <v>679</v>
       </c>
       <c r="C363" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A363,", ",B363,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, share together, share , All</v>
       </c>
       <c r="D363" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A363,1))&amp;RIGHT(A363,LEN(A363)-1),", ",UPPER(LEFT(B363,1))&amp;RIGHT(B363,LEN(B363)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Share together, Share , All</v>
       </c>
     </row>
@@ -8842,11 +8851,11 @@
         <v>683</v>
       </c>
       <c r="C364" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A364,", ",B364,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, shiny in appearance, shiny , All</v>
       </c>
       <c r="D364" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A364,1))&amp;RIGHT(A364,LEN(A364)-1),", ",UPPER(LEFT(B364,1))&amp;RIGHT(B364,LEN(B364)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Shiny in appearance, Shiny , All</v>
       </c>
     </row>
@@ -8858,11 +8867,11 @@
         <v>685</v>
       </c>
       <c r="C365" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A365,", ",B365,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, shut down, shut , All</v>
       </c>
       <c r="D365" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A365,1))&amp;RIGHT(A365,LEN(A365)-1),", ",UPPER(LEFT(B365,1))&amp;RIGHT(B365,LEN(B365)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Shut down, Shut , All</v>
       </c>
     </row>
@@ -8874,11 +8883,11 @@
         <v>815</v>
       </c>
       <c r="C366" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A366,", ",B366,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, sienna in color, sienna, All</v>
       </c>
       <c r="D366" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A366,1))&amp;RIGHT(A366,LEN(A366)-1),", ",UPPER(LEFT(B366,1))&amp;RIGHT(B366,LEN(B366)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Sienna in color, Sienna, All</v>
       </c>
     </row>
@@ -8890,11 +8899,11 @@
         <v>185</v>
       </c>
       <c r="C367" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A367,", ",B367,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, since the time when, since, All</v>
       </c>
       <c r="D367" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A367,1))&amp;RIGHT(A367,LEN(A367)-1),", ",UPPER(LEFT(B367,1))&amp;RIGHT(B367,LEN(B367)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Since the time when, Since, All</v>
       </c>
     </row>
@@ -8906,11 +8915,11 @@
         <v>730</v>
       </c>
       <c r="C368" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A368,", ",B368,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, truly sincere, sincere, All</v>
       </c>
       <c r="D368" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A368,1))&amp;RIGHT(A368,LEN(A368)-1),", ",UPPER(LEFT(B368,1))&amp;RIGHT(B368,LEN(B368)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Truly sincere, Sincere, All</v>
       </c>
     </row>
@@ -8922,11 +8931,11 @@
         <v>689</v>
       </c>
       <c r="C369" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A369,", ",B369,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, skipped over, skipped , All</v>
       </c>
       <c r="D369" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A369,1))&amp;RIGHT(A369,LEN(A369)-1),", ",UPPER(LEFT(B369,1))&amp;RIGHT(B369,LEN(B369)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Skipped over, Skipped , All</v>
       </c>
     </row>
@@ -8938,11 +8947,11 @@
         <v>691</v>
       </c>
       <c r="C370" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A370,", ",B370,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, slow speed, slow , All</v>
       </c>
       <c r="D370" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A370,1))&amp;RIGHT(A370,LEN(A370)-1),", ",UPPER(LEFT(B370,1))&amp;RIGHT(B370,LEN(B370)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Slow speed, Slow , All</v>
       </c>
     </row>
@@ -8954,11 +8963,11 @@
         <v>693</v>
       </c>
       <c r="C371" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A371,", ",B371,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, small size, small , All</v>
       </c>
       <c r="D371" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A371,1))&amp;RIGHT(A371,LEN(A371)-1),", ",UPPER(LEFT(B371,1))&amp;RIGHT(B371,LEN(B371)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Small size, Small , All</v>
       </c>
     </row>
@@ -8970,11 +8979,11 @@
         <v>773</v>
       </c>
       <c r="C372" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A372,", ",B372,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, white snow, snow, All</v>
       </c>
       <c r="D372" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A372,1))&amp;RIGHT(A372,LEN(A372)-1),", ",UPPER(LEFT(B372,1))&amp;RIGHT(B372,LEN(B372)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, White snow, Snow, All</v>
       </c>
     </row>
@@ -8986,11 +8995,11 @@
         <v>673</v>
       </c>
       <c r="C373" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A373,", ",B373,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, soft to the touch, soft , All</v>
       </c>
       <c r="D373" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A373,1))&amp;RIGHT(A373,LEN(A373)-1),", ",UPPER(LEFT(B373,1))&amp;RIGHT(B373,LEN(B373)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Soft to the touch, Soft , All</v>
       </c>
     </row>
@@ -9002,11 +9011,11 @@
         <v>673</v>
       </c>
       <c r="C374" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A374,", ",B374,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, soft in texture, soft , All</v>
       </c>
       <c r="D374" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A374,1))&amp;RIGHT(A374,LEN(A374)-1),", ",UPPER(LEFT(B374,1))&amp;RIGHT(B374,LEN(B374)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Soft in texture, Soft , All</v>
       </c>
     </row>
@@ -9018,11 +9027,11 @@
         <v>698</v>
       </c>
       <c r="C375" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A375,", ",B375,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, sole of the foot, sole , All</v>
       </c>
       <c r="D375" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A375,1))&amp;RIGHT(A375,LEN(A375)-1),", ",UPPER(LEFT(B375,1))&amp;RIGHT(B375,LEN(B375)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Sole of the foot, Sole , All</v>
       </c>
     </row>
@@ -9034,11 +9043,11 @@
         <v>377</v>
       </c>
       <c r="C376" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A376,", ",B376,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, empty space, space, All</v>
       </c>
       <c r="D376" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A376,1))&amp;RIGHT(A376,LEN(A376)-1),", ",UPPER(LEFT(B376,1))&amp;RIGHT(B376,LEN(B376)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Empty space, Space, All</v>
       </c>
     </row>
@@ -9050,11 +9059,11 @@
         <v>695</v>
       </c>
       <c r="C377" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A377,", ",B377,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, small speck, speck, All</v>
       </c>
       <c r="D377" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A377,1))&amp;RIGHT(A377,LEN(A377)-1),", ",UPPER(LEFT(B377,1))&amp;RIGHT(B377,LEN(B377)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Small speck, Speck, All</v>
       </c>
     </row>
@@ -9066,11 +9075,11 @@
         <v>187</v>
       </c>
       <c r="C378" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A378,", ",B378,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, spell out in detail, spell out, All</v>
       </c>
       <c r="D378" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A378,1))&amp;RIGHT(A378,LEN(A378)-1),", ",UPPER(LEFT(B378,1))&amp;RIGHT(B378,LEN(B378)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Spell out in detail, Spell out, All</v>
       </c>
     </row>
@@ -9082,11 +9091,11 @@
         <v>699</v>
       </c>
       <c r="C379" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A379,", ",B379,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, spell out in detail, spell out , All</v>
       </c>
       <c r="D379" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A379,1))&amp;RIGHT(A379,LEN(A379)-1),", ",UPPER(LEFT(B379,1))&amp;RIGHT(B379,LEN(B379)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Spell out in detail, Spell out , All</v>
       </c>
     </row>
@@ -9098,11 +9107,11 @@
         <v>701</v>
       </c>
       <c r="C380" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A380,", ",B380,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, spliced together, spliced , All</v>
       </c>
       <c r="D380" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A380,1))&amp;RIGHT(A380,LEN(A380)-1),", ",UPPER(LEFT(B380,1))&amp;RIGHT(B380,LEN(B380)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Spliced together, Spliced , All</v>
       </c>
     </row>
@@ -9114,11 +9123,11 @@
         <v>703</v>
       </c>
       <c r="C381" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A381,", ",B381,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, start off, start , All</v>
       </c>
       <c r="D381" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A381,1))&amp;RIGHT(A381,LEN(A381)-1),", ",UPPER(LEFT(B381,1))&amp;RIGHT(B381,LEN(B381)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Start off, Start , All</v>
       </c>
     </row>
@@ -9130,11 +9139,11 @@
         <v>703</v>
       </c>
       <c r="C382" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A382,", ",B382,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, start on, start , All</v>
       </c>
       <c r="D382" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A382,1))&amp;RIGHT(A382,LEN(A382)-1),", ",UPPER(LEFT(B382,1))&amp;RIGHT(B382,LEN(B382)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Start on, Start , All</v>
       </c>
     </row>
@@ -9146,11 +9155,11 @@
         <v>234</v>
       </c>
       <c r="C383" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A383,", ",B383,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, anonymous stranger, stranger, All</v>
       </c>
       <c r="D383" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A383,1))&amp;RIGHT(A383,LEN(A383)-1),", ",UPPER(LEFT(B383,1))&amp;RIGHT(B383,LEN(B383)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Anonymous stranger, Stranger, All</v>
       </c>
     </row>
@@ -9162,11 +9171,11 @@
         <v>386</v>
       </c>
       <c r="C384" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A384,", ",B384,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, fellow student, student, All</v>
       </c>
       <c r="D384" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A384,1))&amp;RIGHT(A384,LEN(A384)-1),", ",UPPER(LEFT(B384,1))&amp;RIGHT(B384,LEN(B384)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Fellow student, Student, All</v>
       </c>
     </row>
@@ -9178,11 +9187,11 @@
         <v>495</v>
       </c>
       <c r="C385" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A385,", ",B385,", All")</f>
+        <f t="shared" si="10"/>
         <v>stringReplace, contents, contents, live studio audience, studio audience, All</v>
       </c>
       <c r="D385" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A385,1))&amp;RIGHT(A385,LEN(A385)-1),", ",UPPER(LEFT(B385,1))&amp;RIGHT(B385,LEN(B385)-1),", All")</f>
+        <f t="shared" si="11"/>
         <v>stringReplace, contents, contents, Live studio audience, Studio audience, All</v>
       </c>
     </row>
@@ -9194,11 +9203,11 @@
         <v>744</v>
       </c>
       <c r="C386" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A386,", ",B386,", All")</f>
+        <f t="shared" ref="C386:C449" si="12">CONCATENATE("stringReplace, contents, contents, ",A386,", ",B386,", All")</f>
         <v>stringReplace, contents, contents, underground subway, subway, All</v>
       </c>
       <c r="D386" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A386,1))&amp;RIGHT(A386,LEN(A386)-1),", ",UPPER(LEFT(B386,1))&amp;RIGHT(B386,LEN(B386)-1),", All")</f>
+        <f t="shared" ref="D386:D441" si="13">CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A386,1))&amp;RIGHT(A386,LEN(A386)-1),", ",UPPER(LEFT(B386,1))&amp;RIGHT(B386,LEN(B386)-1),", All")</f>
         <v>stringReplace, contents, contents, Underground subway, Subway, All</v>
       </c>
     </row>
@@ -9210,11 +9219,11 @@
         <v>275</v>
       </c>
       <c r="C387" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A387,", ",B387,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, brief summary, summary, All</v>
       </c>
       <c r="D387" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A387,1))&amp;RIGHT(A387,LEN(A387)-1),", ",UPPER(LEFT(B387,1))&amp;RIGHT(B387,LEN(B387)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Brief summary, Summary, All</v>
       </c>
     </row>
@@ -9226,11 +9235,11 @@
         <v>68</v>
       </c>
       <c r="C388" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A388,", ",B388,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, absolutely sure, sure, All</v>
       </c>
       <c r="D388" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A388,1))&amp;RIGHT(A388,LEN(A388)-1),", ",UPPER(LEFT(B388,1))&amp;RIGHT(B388,LEN(B388)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Absolutely sure, Sure, All</v>
       </c>
     </row>
@@ -9242,11 +9251,11 @@
         <v>195</v>
       </c>
       <c r="C389" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A389,", ",B389,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, unexpected surprise, surprise, All</v>
       </c>
       <c r="D389" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A389,1))&amp;RIGHT(A389,LEN(A389)-1),", ",UPPER(LEFT(B389,1))&amp;RIGHT(B389,LEN(B389)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Unexpected surprise, Surprise, All</v>
       </c>
     </row>
@@ -9258,11 +9267,11 @@
         <v>316</v>
       </c>
       <c r="C390" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A390,", ",B390,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, completely surround, surround, All</v>
       </c>
       <c r="D390" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A390,1))&amp;RIGHT(A390,LEN(A390)-1),", ",UPPER(LEFT(B390,1))&amp;RIGHT(B390,LEN(B390)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Completely surround, Surround, All</v>
       </c>
     </row>
@@ -9274,11 +9283,11 @@
         <v>711</v>
       </c>
       <c r="C391" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A391,", ",B391,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, surrounded on all sides, surrounded , All</v>
       </c>
       <c r="D391" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A391,1))&amp;RIGHT(A391,LEN(A391)-1),", ",UPPER(LEFT(B391,1))&amp;RIGHT(B391,LEN(B391)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Surrounded on all sides, Surrounded , All</v>
       </c>
     </row>
@@ -9290,11 +9299,11 @@
         <v>714</v>
       </c>
       <c r="C392" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A392,", ",B392,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, tall in height, tall , All</v>
       </c>
       <c r="D392" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A392,1))&amp;RIGHT(A392,LEN(A392)-1),", ",UPPER(LEFT(B392,1))&amp;RIGHT(B392,LEN(B392)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Tall in height, Tall , All</v>
       </c>
     </row>
@@ -9306,11 +9315,11 @@
         <v>714</v>
       </c>
       <c r="C393" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A393,", ",B393,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, tall in stature, tall , All</v>
       </c>
       <c r="D393" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A393,1))&amp;RIGHT(A393,LEN(A393)-1),", ",UPPER(LEFT(B393,1))&amp;RIGHT(B393,LEN(B393)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Tall in stature, Tall , All</v>
       </c>
     </row>
@@ -9322,11 +9331,11 @@
         <v>817</v>
       </c>
       <c r="C394" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A394,", ",B394,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, tan in color, tan, All</v>
       </c>
       <c r="D394" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A394,1))&amp;RIGHT(A394,LEN(A394)-1),", ",UPPER(LEFT(B394,1))&amp;RIGHT(B394,LEN(B394)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Tan in color, Tan, All</v>
       </c>
     </row>
@@ -9338,11 +9347,11 @@
         <v>717</v>
       </c>
       <c r="C395" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A395,", ",B395,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, temper tantrum, tantrum, All</v>
       </c>
       <c r="D395" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A395,1))&amp;RIGHT(A395,LEN(A395)-1),", ",UPPER(LEFT(B395,1))&amp;RIGHT(B395,LEN(B395)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Temper tantrum, Tantrum, All</v>
       </c>
     </row>
@@ -9354,11 +9363,11 @@
         <v>517</v>
       </c>
       <c r="C396" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A396,", ",B396,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, mental telepathy, telepathy, All</v>
       </c>
       <c r="D396" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A396,1))&amp;RIGHT(A396,LEN(A396)-1),", ",UPPER(LEFT(B396,1))&amp;RIGHT(B396,LEN(B396)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Mental telepathy, Telepathy, All</v>
       </c>
     </row>
@@ -9370,11 +9379,11 @@
         <v>52</v>
       </c>
       <c r="C397" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A397,", ",B397,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, on a temporary basis, temporarily, All</v>
       </c>
       <c r="D397" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A397,1))&amp;RIGHT(A397,LEN(A397)-1),", ",UPPER(LEFT(B397,1))&amp;RIGHT(B397,LEN(B397)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, On a temporary basis, Temporarily, All</v>
       </c>
     </row>
@@ -9386,11 +9395,11 @@
         <v>719</v>
       </c>
       <c r="C398" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A398,", ",B398,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, ten in number, ten , All</v>
       </c>
       <c r="D398" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A398,1))&amp;RIGHT(A398,LEN(A398)-1),", ",UPPER(LEFT(B398,1))&amp;RIGHT(B398,LEN(B398)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Ten in number, Ten , All</v>
       </c>
     </row>
@@ -9402,11 +9411,11 @@
         <v>723</v>
       </c>
       <c r="C399" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A399,", ",B399,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, time period, time , All</v>
       </c>
       <c r="D399" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A399,1))&amp;RIGHT(A399,LEN(A399)-1),", ",UPPER(LEFT(B399,1))&amp;RIGHT(B399,LEN(B399)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Time period, Time , All</v>
       </c>
     </row>
@@ -9418,11 +9427,11 @@
         <v>29</v>
       </c>
       <c r="C400" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A400,", ",B400,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, in order to, to, All</v>
       </c>
       <c r="D400" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A400,1))&amp;RIGHT(A400,LEN(A400)-1),", ",UPPER(LEFT(B400,1))&amp;RIGHT(B400,LEN(B400)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, In order to, To, All</v>
       </c>
     </row>
@@ -9434,11 +9443,11 @@
         <v>709</v>
       </c>
       <c r="C401" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A401,", ",B401,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, sum total, total, All</v>
       </c>
       <c r="D401" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A401,1))&amp;RIGHT(A401,LEN(A401)-1),", ",UPPER(LEFT(B401,1))&amp;RIGHT(B401,LEN(B401)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Sum total, Total, All</v>
       </c>
     </row>
@@ -9450,11 +9459,11 @@
         <v>193</v>
       </c>
       <c r="C402" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A402,", ",B402,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, therapeutic treatment, treatment, All</v>
       </c>
       <c r="D402" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A402,1))&amp;RIGHT(A402,LEN(A402)-1),", ",UPPER(LEFT(B402,1))&amp;RIGHT(B402,LEN(B402)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Therapeutic treatment, Treatment, All</v>
       </c>
     </row>
@@ -9466,11 +9475,11 @@
         <v>566</v>
       </c>
       <c r="C403" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A403,", ",B403,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, open trench, trench, All</v>
       </c>
       <c r="D403" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A403,1))&amp;RIGHT(A403,LEN(A403)-1),", ",UPPER(LEFT(B403,1))&amp;RIGHT(B403,LEN(B403)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Open trench, Trench, All</v>
       </c>
     </row>
@@ -9482,11 +9491,11 @@
         <v>25</v>
       </c>
       <c r="C404" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A404,", ",B404,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, made an effort, tried, All</v>
       </c>
       <c r="D404" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A404,1))&amp;RIGHT(A404,LEN(A404)-1),", ",UPPER(LEFT(B404,1))&amp;RIGHT(B404,LEN(B404)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Made an effort, Tried, All</v>
       </c>
     </row>
@@ -9498,11 +9507,11 @@
         <v>27</v>
       </c>
       <c r="C405" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A405,", ",B405,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, make an effort, try, All</v>
       </c>
       <c r="D405" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A405,1))&amp;RIGHT(A405,LEN(A405)-1),", ",UPPER(LEFT(B405,1))&amp;RIGHT(B405,LEN(B405)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Make an effort, Try, All</v>
       </c>
     </row>
@@ -9514,11 +9523,11 @@
         <v>454</v>
       </c>
       <c r="C406" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A406,", ",B406,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, hollow tube, tube, All</v>
       </c>
       <c r="D406" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A406,1))&amp;RIGHT(A406,LEN(A406)-1),", ",UPPER(LEFT(B406,1))&amp;RIGHT(B406,LEN(B406)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Hollow tube, Tube, All</v>
       </c>
     </row>
@@ -9530,11 +9539,11 @@
         <v>732</v>
       </c>
       <c r="C407" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A407,", ",B407,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, tuna fish, tuna , All</v>
       </c>
       <c r="D407" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A407,1))&amp;RIGHT(A407,LEN(A407)-1),", ",UPPER(LEFT(B407,1))&amp;RIGHT(B407,LEN(B407)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Tuna fish, Tuna , All</v>
       </c>
     </row>
@@ -9546,11 +9555,11 @@
         <v>422</v>
       </c>
       <c r="C408" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A408,", ",B408,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, frozen tundra, tundra, All</v>
       </c>
       <c r="D408" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A408,1))&amp;RIGHT(A408,LEN(A408)-1),", ",UPPER(LEFT(B408,1))&amp;RIGHT(B408,LEN(B408)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Frozen tundra, Tundra, All</v>
       </c>
     </row>
@@ -9562,11 +9571,11 @@
         <v>819</v>
       </c>
       <c r="C409" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A409,", ",B409,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, turquoise in color, turquoise, All</v>
       </c>
       <c r="D409" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A409,1))&amp;RIGHT(A409,LEN(A409)-1),", ",UPPER(LEFT(B409,1))&amp;RIGHT(B409,LEN(B409)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Turquoise in color, Turquoise, All</v>
       </c>
     </row>
@@ -9578,11 +9587,11 @@
         <v>403</v>
       </c>
       <c r="C410" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A410,", ",B410,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, final ultimatum, ultimatum, All</v>
       </c>
       <c r="D410" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A410,1))&amp;RIGHT(A410,LEN(A410)-1),", ",UPPER(LEFT(B410,1))&amp;RIGHT(B410,LEN(B410)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Final ultimatum, Ultimatum, All</v>
       </c>
     </row>
@@ -9594,11 +9603,11 @@
         <v>742</v>
       </c>
       <c r="C411" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A411,", ",B411,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, undergraduate student, undergraduate , All</v>
       </c>
       <c r="D411" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A411,1))&amp;RIGHT(A411,LEN(A411)-1),", ",UPPER(LEFT(B411,1))&amp;RIGHT(B411,LEN(B411)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Undergraduate student, Undergraduate , All</v>
       </c>
     </row>
@@ -9610,11 +9619,11 @@
         <v>760</v>
       </c>
       <c r="C412" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A412,", ",B412,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, very unique, unique, All</v>
       </c>
       <c r="D412" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A412,1))&amp;RIGHT(A412,LEN(A412)-1),", ",UPPER(LEFT(B412,1))&amp;RIGHT(B412,LEN(B412)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Very unique, Unique, All</v>
       </c>
     </row>
@@ -9626,11 +9635,11 @@
         <v>687</v>
       </c>
       <c r="C413" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A413,", ",B413,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, single unit, unit, All</v>
       </c>
       <c r="D413" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A413,1))&amp;RIGHT(A413,LEN(A413)-1),", ",UPPER(LEFT(B413,1))&amp;RIGHT(B413,LEN(B413)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Single unit, Unit, All</v>
       </c>
     </row>
@@ -9642,11 +9651,11 @@
         <v>752</v>
       </c>
       <c r="C414" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A414,", ",B414,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, UPC code, UPC , All</v>
       </c>
       <c r="D414" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A414,1))&amp;RIGHT(A414,LEN(A414)-1),", ",UPPER(LEFT(B414,1))&amp;RIGHT(B414,LEN(B414)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, UPC code, UPC , All</v>
       </c>
     </row>
@@ -9658,11 +9667,11 @@
         <v>41</v>
       </c>
       <c r="C415" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A415,", ",B415,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, utilize, use, All</v>
       </c>
       <c r="D415" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A415,1))&amp;RIGHT(A415,LEN(A415)-1),", ",UPPER(LEFT(B415,1))&amp;RIGHT(B415,LEN(B415)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Utilize, Use, All</v>
       </c>
     </row>
@@ -9674,11 +9683,11 @@
         <v>45</v>
       </c>
       <c r="C416" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A416,", ",B416,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, utilizable, useable, All</v>
       </c>
       <c r="D416" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A416,1))&amp;RIGHT(A416,LEN(A416)-1),", ",UPPER(LEFT(B416,1))&amp;RIGHT(B416,LEN(B416)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Utilizable, Useable, All</v>
       </c>
     </row>
@@ -9690,11 +9699,11 @@
         <v>37</v>
       </c>
       <c r="C417" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A417,", ",B417,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, utilizing, using, All</v>
       </c>
       <c r="D417" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A417,1))&amp;RIGHT(A417,LEN(A417)-1),", ",UPPER(LEFT(B417,1))&amp;RIGHT(B417,LEN(B417)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Utilizing, Using, All</v>
       </c>
     </row>
@@ -9706,11 +9715,11 @@
         <v>754</v>
       </c>
       <c r="C418" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A418,", ",B418,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, vacillate back and forth, vacillate , All</v>
       </c>
       <c r="D418" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A418,1))&amp;RIGHT(A418,LEN(A418)-1),", ",UPPER(LEFT(B418,1))&amp;RIGHT(B418,LEN(B418)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Vacillate back and forth, Vacillate , All</v>
       </c>
     </row>
@@ -9722,11 +9731,11 @@
         <v>416</v>
       </c>
       <c r="C419" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A419,", ",B419,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, former veteran, veteran, All</v>
       </c>
       <c r="D419" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A419,1))&amp;RIGHT(A419,LEN(A419)-1),", ",UPPER(LEFT(B419,1))&amp;RIGHT(B419,LEN(B419)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Former veteran, Veteran, All</v>
       </c>
     </row>
@@ -9738,11 +9747,11 @@
         <v>823</v>
       </c>
       <c r="C420" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A420,", ",B420,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, violet in color, violet, All</v>
       </c>
       <c r="D420" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A420,1))&amp;RIGHT(A420,LEN(A420)-1),", ",UPPER(LEFT(B420,1))&amp;RIGHT(B420,LEN(B420)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Violet in color, Violet, All</v>
       </c>
     </row>
@@ -9754,11 +9763,11 @@
         <v>762</v>
       </c>
       <c r="C421" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A421,", ",B421,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, visible to the eye, visible , All</v>
       </c>
       <c r="D421" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A421,1))&amp;RIGHT(A421,LEN(A421)-1),", ",UPPER(LEFT(B421,1))&amp;RIGHT(B421,LEN(B421)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Visible to the eye, Visible , All</v>
       </c>
     </row>
@@ -9770,11 +9779,11 @@
         <v>766</v>
       </c>
       <c r="C422" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A422,", ",B422,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, warn in advance, warn , All</v>
       </c>
       <c r="D422" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A422,1))&amp;RIGHT(A422,LEN(A422)-1),", ",UPPER(LEFT(B422,1))&amp;RIGHT(B422,LEN(B422)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Warn in advance, Warn , All</v>
       </c>
     </row>
@@ -9786,11 +9795,11 @@
         <v>81</v>
       </c>
       <c r="C423" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A423,", ",B423,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, advanced warning, warning, All</v>
       </c>
       <c r="D423" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A423,1))&amp;RIGHT(A423,LEN(A423)-1),", ",UPPER(LEFT(B423,1))&amp;RIGHT(B423,LEN(B423)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Advanced warning, Warning, All</v>
       </c>
     </row>
@@ -9802,11 +9811,11 @@
         <v>81</v>
       </c>
       <c r="C424" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A424,", ",B424,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, advance warning, warning, All</v>
       </c>
       <c r="D424" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A424,1))&amp;RIGHT(A424,LEN(A424)-1),", ",UPPER(LEFT(B424,1))&amp;RIGHT(B424,LEN(B424)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Advance warning, Warning, All</v>
       </c>
     </row>
@@ -9818,11 +9827,11 @@
         <v>768</v>
       </c>
       <c r="C425" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A425,", ",B425,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, weather conditions, weather , All</v>
       </c>
       <c r="D425" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A425,1))&amp;RIGHT(A425,LEN(A425)-1),", ",UPPER(LEFT(B425,1))&amp;RIGHT(B425,LEN(B425)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Weather conditions, Weather , All</v>
       </c>
     </row>
@@ -9834,11 +9843,11 @@
         <v>768</v>
       </c>
       <c r="C426" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A426,", ",B426,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, weather situation, weather , All</v>
       </c>
       <c r="D426" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A426,1))&amp;RIGHT(A426,LEN(A426)-1),", ",UPPER(LEFT(B426,1))&amp;RIGHT(B426,LEN(B426)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Weather situation, Weather , All</v>
       </c>
     </row>
@@ -9850,11 +9859,11 @@
         <v>418</v>
       </c>
       <c r="C427" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A427,", ",B427,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, from whence, whence, All</v>
       </c>
       <c r="D427" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A427,1))&amp;RIGHT(A427,LEN(A427)-1),", ",UPPER(LEFT(B427,1))&amp;RIGHT(B427,LEN(B427)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, From whence, Whence, All</v>
       </c>
     </row>
@@ -9866,11 +9875,11 @@
         <v>771</v>
       </c>
       <c r="C428" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A428,", ",B428,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, whether or not, whether , All</v>
       </c>
       <c r="D428" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A428,1))&amp;RIGHT(A428,LEN(A428)-1),", ",UPPER(LEFT(B428,1))&amp;RIGHT(B428,LEN(B428)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Whether or not, Whether , All</v>
       </c>
     </row>
@@ -9882,11 +9891,11 @@
         <v>107</v>
       </c>
       <c r="C429" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A429,", ",B429,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, whilst, while, All</v>
       </c>
       <c r="D429" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A429,1))&amp;RIGHT(A429,LEN(A429)-1),", ",UPPER(LEFT(B429,1))&amp;RIGHT(B429,LEN(B429)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Whilst, While, All</v>
       </c>
     </row>
@@ -9898,11 +9907,11 @@
         <v>775</v>
       </c>
       <c r="C430" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A430,", ",B430,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, white in color, white, All</v>
       </c>
       <c r="D430" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A430,1))&amp;RIGHT(A430,LEN(A430)-1),", ",UPPER(LEFT(B430,1))&amp;RIGHT(B430,LEN(B430)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, White in color, White, All</v>
       </c>
     </row>
@@ -9914,11 +9923,11 @@
         <v>497</v>
       </c>
       <c r="C431" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A431,", ",B431,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, live witness, witness, All</v>
       </c>
       <c r="D431" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A431,1))&amp;RIGHT(A431,LEN(A431)-1),", ",UPPER(LEFT(B431,1))&amp;RIGHT(B431,LEN(B431)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Live witness, Witness, All</v>
       </c>
     </row>
@@ -9930,11 +9939,11 @@
         <v>203</v>
       </c>
       <c r="C432" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A432,", ",B432,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, write down, write, All</v>
       </c>
       <c r="D432" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A432,1))&amp;RIGHT(A432,LEN(A432)-1),", ",UPPER(LEFT(B432,1))&amp;RIGHT(B432,LEN(B432)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Write down, Write, All</v>
       </c>
     </row>
@@ -9946,11 +9955,11 @@
         <v>207</v>
       </c>
       <c r="C433" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A433,", ",B433,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, writes down, writes, All</v>
       </c>
       <c r="D433" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A433,1))&amp;RIGHT(A433,LEN(A433)-1),", ",UPPER(LEFT(B433,1))&amp;RIGHT(B433,LEN(B433)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Writes down, Writes, All</v>
       </c>
     </row>
@@ -9962,11 +9971,11 @@
         <v>205</v>
       </c>
       <c r="C434" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A434,", ",B434,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, writing down, writing, All</v>
       </c>
       <c r="D434" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A434,1))&amp;RIGHT(A434,LEN(A434)-1),", ",UPPER(LEFT(B434,1))&amp;RIGHT(B434,LEN(B434)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Writing down, Writing, All</v>
       </c>
     </row>
@@ -9978,11 +9987,11 @@
         <v>201</v>
       </c>
       <c r="C435" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A435,", ",B435,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, written down, written, All</v>
       </c>
       <c r="D435" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A435,1))&amp;RIGHT(A435,LEN(A435)-1),", ",UPPER(LEFT(B435,1))&amp;RIGHT(B435,LEN(B435)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Written down, Written, All</v>
       </c>
     </row>
@@ -9994,11 +10003,11 @@
         <v>209</v>
       </c>
       <c r="C436" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A436,", ",B436,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, wrote down, wrote, All</v>
       </c>
       <c r="D436" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A436,1))&amp;RIGHT(A436,LEN(A436)-1),", ",UPPER(LEFT(B436,1))&amp;RIGHT(B436,LEN(B436)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Wrote down, Wrote, All</v>
       </c>
     </row>
@@ -10010,11 +10019,11 @@
         <v>49</v>
       </c>
       <c r="C437" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A437,", ",B437,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, on a yearly basis, yearly, All</v>
       </c>
       <c r="D437" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A437,1))&amp;RIGHT(A437,LEN(A437)-1),", ",UPPER(LEFT(B437,1))&amp;RIGHT(B437,LEN(B437)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, On a yearly basis, Yearly, All</v>
       </c>
     </row>
@@ -10026,11 +10035,11 @@
         <v>785</v>
       </c>
       <c r="C438" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A438,", ",B438,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, yellow in color, yellow, All</v>
       </c>
       <c r="D438" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A438,1))&amp;RIGHT(A438,LEN(A438)-1),", ",UPPER(LEFT(B438,1))&amp;RIGHT(B438,LEN(B438)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Yellow in color, Yellow, All</v>
       </c>
     </row>
@@ -10042,25 +10051,45 @@
         <v>225</v>
       </c>
       <c r="C439" s="2" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",A439,", ",B439,", All")</f>
+        <f t="shared" si="12"/>
         <v>stringReplace, contents, contents, affirmative yes, yes, All</v>
       </c>
       <c r="D439" s="3" t="str">
-        <f>CONCATENATE("stringReplace, contents, contents, ",UPPER(LEFT(A439,1))&amp;RIGHT(A439,LEN(A439)-1),", ",UPPER(LEFT(B439,1))&amp;RIGHT(B439,LEN(B439)-1),", All")</f>
+        <f t="shared" si="13"/>
         <v>stringReplace, contents, contents, Affirmative yes, Yes, All</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A440"/>
-      <c r="B440"/>
-      <c r="C440"/>
-      <c r="D440"/>
+      <c r="A440" t="s">
+        <v>832</v>
+      </c>
+      <c r="B440" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C440" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>stringReplace, contents, contents, it is also important to note that, notably, All</v>
+      </c>
+      <c r="D440" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>stringReplace, contents, contents, It is also important to note that, Notably, All</v>
+      </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A441"/>
-      <c r="B441"/>
-      <c r="C441"/>
-      <c r="D441"/>
+      <c r="A441" t="s">
+        <v>833</v>
+      </c>
+      <c r="B441" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="C441" s="2" t="str">
+        <f t="shared" si="12"/>
+        <v>stringReplace, contents, contents, it is important to note that, notably, All</v>
+      </c>
+      <c r="D441" s="3" t="str">
+        <f t="shared" si="13"/>
+        <v>stringReplace, contents, contents, It is important to note that, Notably, All</v>
+      </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A442"/>
